--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44211</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>9000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>8000</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>10000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>9000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1407,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O14" t="n">
         <v>15000</v>
       </c>
-      <c r="O14" t="n">
-        <v>16000</v>
-      </c>
       <c r="P14" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44169</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44169</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2127,13 +2127,13 @@
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44194</v>
+        <v>44169</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44194</v>
+        <v>44169</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2287,13 +2287,13 @@
         <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2367,13 +2367,13 @@
         <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2447,13 +2447,13 @@
         <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2527,13 +2527,13 @@
         <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2607,13 +2607,13 @@
         <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>8000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44196</v>
+        <v>44159</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,13 +2847,13 @@
         <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>1450</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
         <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P37" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1450</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3407,13 +3407,13 @@
         <v>100</v>
       </c>
       <c r="N38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O38" t="n">
         <v>10000</v>
       </c>
-      <c r="O38" t="n">
-        <v>11000</v>
-      </c>
       <c r="P38" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3567,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P41" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44160</v>
+        <v>44196</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1300</v>
+        <v>1050</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44211</v>
+        <v>44196</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -3890,10 +3890,10 @@
         <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P44" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44208</v>
+        <v>44215</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P47" t="n">
-        <v>9000</v>
+        <v>8250</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>900</v>
+        <v>825</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>750</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P4" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O6" t="n">
         <v>10000</v>
       </c>
-      <c r="O6" t="n">
-        <v>11000</v>
-      </c>
       <c r="P6" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O8" t="n">
         <v>10000</v>
       </c>
-      <c r="O8" t="n">
-        <v>11000</v>
-      </c>
       <c r="P8" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>10000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>9000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44202</v>
+        <v>44169</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P19" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44202</v>
+        <v>44169</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O27" t="n">
         <v>10000</v>
       </c>
-      <c r="O27" t="n">
-        <v>11000</v>
-      </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44203</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,13 +2687,13 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44203</v>
+        <v>44187</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44159</v>
+        <v>44196</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,13 +2847,13 @@
         <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44187</v>
+        <v>44196</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44195</v>
+        <v>44168</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44195</v>
+        <v>44168</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44209</v>
+        <v>44168</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44168</v>
+        <v>44209</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44196</v>
+        <v>44215</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S43" t="n">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44196</v>
+        <v>44215</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S44" t="n">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44215</v>
+        <v>44203</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O45" t="n">
         <v>10000</v>
       </c>
-      <c r="O45" t="n">
-        <v>11000</v>
-      </c>
       <c r="P45" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44215</v>
+        <v>44203</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O48" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P48" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44194</v>
+        <v>44211</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S49" t="n">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44211</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S50" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>8250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1050</v>
+        <v>825</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44195</v>
+        <v>44160</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44169</v>
+        <v>44211</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44169</v>
+        <v>44211</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1650</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P22" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P23" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44208</v>
+        <v>44195</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
         <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44187</v>
+        <v>44209</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1650</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44196</v>
+        <v>44169</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44196</v>
+        <v>44215</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1450</v>
+        <v>900</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44166</v>
+        <v>44203</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44203</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>8000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44215</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1050</v>
+        <v>1450</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44211</v>
+        <v>44187</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44211</v>
+        <v>44187</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -927,13 +927,13 @@
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44203</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O8" t="n">
         <v>10000</v>
       </c>
-      <c r="O8" t="n">
-        <v>11000</v>
-      </c>
       <c r="P8" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44203</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44209</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O10" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44209</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="P14" t="n">
-        <v>15500</v>
+        <v>8250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1550</v>
+        <v>825</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O16" t="n">
         <v>10000</v>
       </c>
-      <c r="O16" t="n">
-        <v>11000</v>
-      </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44211</v>
+        <v>44202</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44211</v>
+        <v>44202</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44188</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1450</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>1650</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44209</v>
+        <v>44188</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
         <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P26" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44209</v>
+        <v>44188</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44169</v>
+        <v>44188</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44169</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44169</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P30" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44189</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44203</v>
+        <v>44189</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
         <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44203</v>
+        <v>44196</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44168</v>
+        <v>44196</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P36" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1300</v>
+        <v>1050</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44202</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44202</v>
+        <v>44166</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44211</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44211</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44187</v>
+        <v>44215</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
         <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P47" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>9000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44209</v>
+        <v>44215</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44209</v>
+        <v>44215</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44162</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44162</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P14" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44202</v>
+        <v>44168</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44202</v>
+        <v>44168</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44203</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44169</v>
+        <v>44203</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44169</v>
+        <v>44162</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44169</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44169</v>
+        <v>44202</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44188</v>
+        <v>44202</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44188</v>
+        <v>44211</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,12 +2595,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2610,10 +2610,10 @@
         <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44211</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44204</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44196</v>
+        <v>44189</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44196</v>
+        <v>44209</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -3250,10 +3250,10 @@
         <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44204</v>
+        <v>44169</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44204</v>
+        <v>44169</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>1650</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
         <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P43" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44215</v>
+        <v>44517</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P47" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>8250</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>825</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,13 +4382,93 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>800</v>
+      </c>
+      <c r="T51" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44169</v>
+        <v>44518</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P38" t="n">
-        <v>15500</v>
+        <v>32000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44169</v>
+        <v>44518</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O40" t="n">
         <v>16000</v>
       </c>
-      <c r="O40" t="n">
-        <v>17000</v>
-      </c>
       <c r="P40" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3727,13 +3727,13 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>200</v>
       </c>
       <c r="N46" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O46" t="n">
         <v>15000</v>
       </c>
-      <c r="O46" t="n">
-        <v>16000</v>
-      </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O49" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P49" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P50" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4435,40 +4435,200 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>100</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P51" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>750</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>100</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P52" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>950</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M53" t="n">
         <v>50</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N53" t="n">
         <v>8000</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O53" t="n">
         <v>8000</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P53" t="n">
         <v>8000</v>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S51" t="n">
+      <c r="S53" t="n">
         <v>800</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T53" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,29 +3564,29 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>15500</v>
+        <v>20571</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1550</v>
+        <v>2057</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1450</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>2100</v>
+        <v>1550</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="P50" t="n">
-        <v>8250</v>
+        <v>21000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>825</v>
+        <v>2100</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O51" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P51" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P52" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4600,35 +4600,115 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>100</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>950</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" t="n">
         <v>50</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" t="n">
         <v>8000</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O54" t="n">
         <v>8000</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" t="n">
         <v>8000</v>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S53" t="n">
+      <c r="S54" t="n">
         <v>800</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T54" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,32 +4124,32 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>12467</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1450</v>
+        <v>1781</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,38 +4195,38 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>17588</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1200</v>
+        <v>1759</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>200</v>
       </c>
       <c r="N49" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O49" t="n">
         <v>15000</v>
       </c>
-      <c r="O49" t="n">
-        <v>16000</v>
-      </c>
       <c r="P49" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P50" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,13 +4527,13 @@
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P52" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P53" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4675,40 +4675,200 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>100</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P54" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>750</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>100</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>950</v>
+      </c>
+      <c r="T55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M56" t="n">
         <v>50</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N56" t="n">
         <v>8000</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O56" t="n">
         <v>8000</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P56" t="n">
         <v>8000</v>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S54" t="n">
+      <c r="S56" t="n">
         <v>800</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T56" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>14500</v>
+        <v>15571</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44168</v>
+        <v>44525</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
         <v>15000</v>
@@ -1733,7 +1733,7 @@
         <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>15500</v>
+        <v>15375</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2447,13 +2447,13 @@
         <v>100</v>
       </c>
       <c r="N26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O26" t="n">
         <v>10000</v>
       </c>
-      <c r="O26" t="n">
-        <v>11000</v>
-      </c>
       <c r="P26" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2527,13 +2527,13 @@
         <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2607,13 +2607,13 @@
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2687,13 +2687,13 @@
         <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>9000</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
         <v>8000</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O34" t="n">
         <v>10000</v>
       </c>
-      <c r="O34" t="n">
-        <v>11000</v>
-      </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P37" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44518</v>
+        <v>44209</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44518</v>
+        <v>44209</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N39" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44523</v>
+        <v>44518</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>20571</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2057</v>
+        <v>3200</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44169</v>
+        <v>44518</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>15500</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,38 +3715,38 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>20571</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1300</v>
+        <v>2057</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O43" t="n">
         <v>16000</v>
       </c>
-      <c r="O43" t="n">
-        <v>17000</v>
-      </c>
       <c r="P43" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3967,13 +3967,13 @@
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P45" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,32 +4124,32 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P47" t="n">
-        <v>12467</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1781</v>
+        <v>1050</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,38 +4195,38 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>17588</v>
+        <v>9000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1759</v>
+        <v>900</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,32 +4284,32 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>12467</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1450</v>
+        <v>1781</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,38 +4355,38 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>17588</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1200</v>
+        <v>1759</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>200</v>
       </c>
       <c r="N51" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O51" t="n">
         <v>15000</v>
       </c>
-      <c r="O51" t="n">
-        <v>16000</v>
-      </c>
       <c r="P51" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,13 +4527,13 @@
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P52" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4607,13 +4607,13 @@
         <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4687,13 +4687,13 @@
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O54" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P54" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P55" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4835,40 +4835,200 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>100</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>750</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>100</v>
+      </c>
+      <c r="N57" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>950</v>
+      </c>
+      <c r="T57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M58" t="n">
         <v>50</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N58" t="n">
         <v>8000</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O58" t="n">
         <v>8000</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P58" t="n">
         <v>8000</v>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S56" t="n">
+      <c r="S58" t="n">
         <v>800</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T58" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N19" t="n">
         <v>15000</v>
@@ -1893,23 +1893,23 @@
         <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P21" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P24" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P26" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
         <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44518</v>
+        <v>44209</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44523</v>
+        <v>44518</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O42" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P42" t="n">
-        <v>20571</v>
+        <v>28000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2057</v>
+        <v>2800</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,29 +3804,29 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>15500</v>
+        <v>20571</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1550</v>
+        <v>2057</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>12467</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1781</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P50" t="n">
-        <v>17588</v>
+        <v>12467</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1759</v>
+        <v>1781</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,29 +4444,29 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>17588</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1450</v>
+        <v>1759</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2100</v>
+        <v>1550</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O55" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="P55" t="n">
-        <v>8250</v>
+        <v>21000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>825</v>
+        <v>2100</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P56" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P57" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -5000,35 +5000,115 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>100</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>950</v>
+      </c>
+      <c r="T58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M59" t="n">
         <v>50</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N59" t="n">
         <v>8000</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O59" t="n">
         <v>8000</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P59" t="n">
         <v>8000</v>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S58" t="n">
+      <c r="S59" t="n">
         <v>800</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T59" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O6" t="n">
         <v>10000</v>
       </c>
-      <c r="O6" t="n">
-        <v>11000</v>
-      </c>
       <c r="P6" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>8000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44215</v>
+        <v>44160</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44215</v>
+        <v>44160</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>10000</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>9000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>10000</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>9000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44525</v>
+        <v>44188</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,29 +1644,29 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>15571</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1557</v>
+        <v>1050</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44525</v>
+        <v>44188</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>15375</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1538</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>14500</v>
+        <v>15571</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
         <v>15000</v>
@@ -1893,11 +1893,11 @@
         <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>15545</v>
+        <v>15375</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3109</v>
+        <v>1538</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O20" t="n">
         <v>15000</v>
       </c>
-      <c r="O20" t="n">
-        <v>16000</v>
-      </c>
       <c r="P20" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,13 +2687,13 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O29" t="n">
         <v>10000</v>
       </c>
-      <c r="O29" t="n">
-        <v>11000</v>
-      </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44208</v>
+        <v>44202</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,13 +2767,13 @@
         <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2847,13 +2847,13 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2927,13 +2927,13 @@
         <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
         <v>9000</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S35" t="n">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
         <v>8000</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S36" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O37" t="n">
         <v>10000</v>
       </c>
-      <c r="O37" t="n">
-        <v>11000</v>
-      </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3487,13 +3487,13 @@
         <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44518</v>
+        <v>44209</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44518</v>
+        <v>44209</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44523</v>
+        <v>44518</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="P43" t="n">
-        <v>20571</v>
+        <v>32000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2057</v>
+        <v>3200</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44169</v>
+        <v>44518</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>15500</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1550</v>
+        <v>2800</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,38 +3955,38 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>20571</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1300</v>
+        <v>2057</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O46" t="n">
         <v>16000</v>
       </c>
-      <c r="O46" t="n">
-        <v>17000</v>
-      </c>
       <c r="P46" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>12467</v>
+        <v>10500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1781</v>
+        <v>1050</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,38 +4435,38 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P51" t="n">
-        <v>17588</v>
+        <v>9000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1759</v>
+        <v>900</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,32 +4524,32 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>12467</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1450</v>
+        <v>1781</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44166</v>
+        <v>44524</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,38 +4595,38 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>17588</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1200</v>
+        <v>1759</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4687,13 +4687,13 @@
         <v>200</v>
       </c>
       <c r="N54" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O54" t="n">
         <v>15000</v>
       </c>
-      <c r="O54" t="n">
-        <v>16000</v>
-      </c>
       <c r="P54" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,13 +4767,13 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O55" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P55" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4847,13 +4847,13 @@
         <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>8250</v>
+        <v>15500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>825</v>
+        <v>1550</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44194</v>
+        <v>44517</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O57" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P57" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P58" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5075,40 +5075,200 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>100</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P59" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>750</v>
+      </c>
+      <c r="T59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>100</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>950</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M61" t="n">
         <v>50</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N61" t="n">
         <v>8000</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O61" t="n">
         <v>8000</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P61" t="n">
         <v>8000</v>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S59" t="n">
+      <c r="S61" t="n">
         <v>800</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T61" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O2" t="n">
         <v>10000</v>
       </c>
-      <c r="O2" t="n">
-        <v>11000</v>
-      </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44209</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,29 +687,29 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3100</v>
+        <v>950</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44209</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O8" t="n">
         <v>10000</v>
       </c>
-      <c r="O8" t="n">
-        <v>11000</v>
-      </c>
       <c r="P8" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>8000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44215</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>15545</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1050</v>
+        <v>3109</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44215</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>9000</v>
+        <v>20571</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>900</v>
+        <v>2057</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>15571</v>
+        <v>12467</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1557</v>
+        <v>1781</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>15375</v>
+        <v>17588</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1538</v>
+        <v>1759</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>8250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1450</v>
+        <v>825</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P21" t="n">
-        <v>15545</v>
+        <v>7500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3109</v>
+        <v>750</v>
       </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44168</v>
+        <v>44202</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44203</v>
+        <v>44517</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44530</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,29 +2687,29 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44202</v>
+        <v>44530</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,29 +2767,29 @@
         <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
         <v>10000</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>9000</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44211</v>
+        <v>44188</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3007,13 +3007,13 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44211</v>
+        <v>44188</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3087,13 +3087,13 @@
         <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44204</v>
+        <v>44188</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44204</v>
+        <v>44188</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P36" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3327,13 +3327,13 @@
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44189</v>
+        <v>44208</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44189</v>
+        <v>44518</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>900</v>
+        <v>3200</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44209</v>
+        <v>44518</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>950</v>
+        <v>2800</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44209</v>
+        <v>44168</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44518</v>
+        <v>44168</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44518</v>
+        <v>44168</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>15500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2800</v>
+        <v>1550</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44523</v>
+        <v>44215</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,29 +3964,29 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>20571</v>
+        <v>10500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2057</v>
+        <v>1050</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44169</v>
+        <v>44215</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44169</v>
+        <v>44204</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44169</v>
+        <v>44204</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1650</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44169</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
         <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44195</v>
+        <v>44166</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P50" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44195</v>
+        <v>44166</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>12467</v>
+        <v>15571</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1781</v>
+        <v>1557</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N53" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>17588</v>
+        <v>15375</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1759</v>
+        <v>1538</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4687,13 +4687,13 @@
         <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,13 +4767,13 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44166</v>
+        <v>44211</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44517</v>
+        <v>44211</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O57" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5007,13 +5007,13 @@
         <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5087,13 +5087,13 @@
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O59" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5167,13 +5167,13 @@
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5247,13 +5247,13 @@
         <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44532</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44532</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O10" t="n">
         <v>10000</v>
       </c>
-      <c r="O10" t="n">
-        <v>11000</v>
-      </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>8000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>15545</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3109</v>
+        <v>1050</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>20571</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44169</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1493,23 +1493,23 @@
         <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>20571</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1300</v>
+        <v>2057</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O16" t="n">
         <v>16000</v>
       </c>
-      <c r="O16" t="n">
-        <v>17000</v>
-      </c>
       <c r="P16" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>12467</v>
+        <v>16500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1781</v>
+        <v>1650</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,38 +1875,38 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>17588</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1759</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>8250</v>
+        <v>12467</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>825</v>
+        <v>1781</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44524</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N21" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>7500</v>
+        <v>17588</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>750</v>
+        <v>1759</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P22" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44517</v>
+        <v>44202</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2100</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44195</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2687,29 +2687,29 @@
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3100</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2767,29 +2767,29 @@
         <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>3100</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
         <v>10000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
         <v>9000</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
         <v>10000</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
         <v>9000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44159</v>
+        <v>44188</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3327,13 +3327,13 @@
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44208</v>
+        <v>44159</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P41" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P42" t="n">
-        <v>15500</v>
+        <v>32000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P47" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>200</v>
       </c>
       <c r="N51" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O51" t="n">
         <v>15000</v>
       </c>
-      <c r="O51" t="n">
-        <v>16000</v>
-      </c>
       <c r="P51" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,38 +4515,38 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P52" t="n">
-        <v>15571</v>
+        <v>12000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1557</v>
+        <v>1200</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
         <v>15000</v>
@@ -4613,7 +4613,7 @@
         <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N54" t="n">
         <v>15000</v>
@@ -4693,11 +4693,11 @@
         <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>15500</v>
+        <v>15571</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>15375</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1300</v>
+        <v>1538</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
         <v>9000</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S58" t="n">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
         <v>8000</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S59" t="n">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O60" t="n">
         <v>10000</v>
       </c>
-      <c r="O60" t="n">
-        <v>11000</v>
-      </c>
       <c r="P60" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5235,40 +5235,200 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>100</v>
+      </c>
+      <c r="N61" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P61" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>800</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>100</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>1050</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M63" t="n">
         <v>50</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N63" t="n">
         <v>9000</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O63" t="n">
         <v>9000</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P63" t="n">
         <v>9000</v>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S61" t="n">
+      <c r="S63" t="n">
         <v>900</v>
       </c>
-      <c r="T61" t="n">
+      <c r="T63" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2100</v>
+        <v>1350</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44195</v>
+        <v>44533</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O29" t="n">
         <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44195</v>
+        <v>44517</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2847,29 +2847,29 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3100</v>
+        <v>1050</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2927,29 +2927,29 @@
         <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>3100</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
         <v>10000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
         <v>9000</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
         <v>10000</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
         <v>9000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44159</v>
+        <v>44188</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3487,13 +3487,13 @@
         <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44208</v>
+        <v>44159</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P43" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>15500</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4607,13 +4607,13 @@
         <v>200</v>
       </c>
       <c r="N53" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O53" t="n">
         <v>15000</v>
       </c>
-      <c r="O53" t="n">
-        <v>16000</v>
-      </c>
       <c r="P53" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,38 +4675,38 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>15571</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1557</v>
+        <v>1200</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
         <v>15000</v>
@@ -4773,7 +4773,7 @@
         <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N56" t="n">
         <v>15000</v>
@@ -4853,11 +4853,11 @@
         <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>15500</v>
+        <v>15571</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>15375</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1300</v>
+        <v>1538</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
         <v>9000</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S60" t="n">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
         <v>8000</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S61" t="n">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O62" t="n">
         <v>10000</v>
       </c>
-      <c r="O62" t="n">
-        <v>11000</v>
-      </c>
       <c r="P62" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5395,40 +5395,200 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>100</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>800</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>100</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O64" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>1050</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="M65" t="n">
         <v>50</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N65" t="n">
         <v>9000</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O65" t="n">
         <v>9000</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P65" t="n">
         <v>9000</v>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S63" t="n">
+      <c r="S65" t="n">
         <v>900</v>
       </c>
-      <c r="T63" t="n">
+      <c r="T65" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>14545</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1454</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O12" t="n">
         <v>10000</v>
       </c>
-      <c r="O12" t="n">
-        <v>11000</v>
-      </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>8000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44187</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P14" t="n">
-        <v>15545</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3109</v>
+        <v>1050</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>20571</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44169</v>
+        <v>44526</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1653,23 +1653,23 @@
         <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,38 +1715,38 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>20571</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1300</v>
+        <v>2057</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O18" t="n">
         <v>16000</v>
       </c>
-      <c r="O18" t="n">
-        <v>17000</v>
-      </c>
       <c r="P18" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>12467</v>
+        <v>16500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1781</v>
+        <v>1650</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,38 +2035,38 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>17588</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1759</v>
+        <v>1400</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44524</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>8250</v>
+        <v>12467</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>825</v>
+        <v>1781</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44194</v>
+        <v>44524</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N23" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>7500</v>
+        <v>17588</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>750</v>
+        <v>1759</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P24" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44202</v>
+        <v>44194</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44533</v>
+        <v>44202</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2607,13 +2607,13 @@
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1350</v>
+        <v>950</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44533</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2687,13 +2687,13 @@
         <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2100</v>
+        <v>1350</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44195</v>
+        <v>44533</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O31" t="n">
         <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44195</v>
+        <v>44517</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3007,29 +3007,29 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3100</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3087,29 +3087,29 @@
         <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1050</v>
+        <v>3100</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
         <v>10000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
         <v>9000</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
         <v>10000</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>9000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44159</v>
+        <v>44188</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44208</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>10500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3967,13 +3967,13 @@
         <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O45" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P45" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P51" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P52" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,13 +4767,13 @@
         <v>200</v>
       </c>
       <c r="N55" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O55" t="n">
         <v>15000</v>
       </c>
-      <c r="O55" t="n">
-        <v>16000</v>
-      </c>
       <c r="P55" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,38 +4835,38 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>15571</v>
+        <v>12000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1557</v>
+        <v>1200</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N57" t="n">
         <v>15000</v>
@@ -4933,7 +4933,7 @@
         <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N58" t="n">
         <v>15000</v>
@@ -5013,11 +5013,11 @@
         <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>15500</v>
+        <v>15571</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>15375</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1300</v>
+        <v>1538</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
         <v>9000</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S62" t="n">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
         <v>8000</v>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O64" t="n">
         <v>10000</v>
       </c>
-      <c r="O64" t="n">
-        <v>11000</v>
-      </c>
       <c r="P64" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5555,40 +5555,200 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>100</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P65" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>800</v>
+      </c>
+      <c r="T65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>100</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>1050</v>
+      </c>
+      <c r="T66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="M67" t="n">
         <v>50</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N67" t="n">
         <v>9000</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O67" t="n">
         <v>9000</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P67" t="n">
         <v>9000</v>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S65" t="n">
+      <c r="S67" t="n">
         <v>900</v>
       </c>
-      <c r="T65" t="n">
+      <c r="T67" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44195</v>
+        <v>44540</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>8727</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>873</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44195</v>
+        <v>44540</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,38 +3075,38 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
         <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>8625</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3167,29 +3167,29 @@
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3100</v>
+        <v>1050</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44530</v>
+        <v>44195</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3247,29 +3247,29 @@
         <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3324,32 +3324,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1050</v>
+        <v>3100</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44196</v>
+        <v>44530</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
         <v>10000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
         <v>9000</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
         <v>10000</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
         <v>9000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44159</v>
+        <v>44188</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P44" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44208</v>
+        <v>44159</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>900</v>
+        <v>1450</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>32000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44168</v>
+        <v>44518</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O51" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P51" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44215</v>
+        <v>44168</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P54" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>200</v>
       </c>
       <c r="N57" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O57" t="n">
         <v>15000</v>
       </c>
-      <c r="O57" t="n">
-        <v>16000</v>
-      </c>
       <c r="P57" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,38 +4995,38 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>15571</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1557</v>
+        <v>1200</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
         <v>15000</v>
@@ -5093,7 +5093,7 @@
         <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N60" t="n">
         <v>15000</v>
@@ -5173,11 +5173,11 @@
         <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>15500</v>
+        <v>15571</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>15375</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1300</v>
+        <v>1538</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
         <v>9000</v>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S64" t="n">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44189</v>
+        <v>44211</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N65" t="n">
         <v>8000</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S65" t="n">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O66" t="n">
         <v>10000</v>
       </c>
-      <c r="O66" t="n">
-        <v>11000</v>
-      </c>
       <c r="P66" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5715,40 +5715,200 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>100</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P67" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>800</v>
+      </c>
+      <c r="T67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>Rainier</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>100</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O68" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P68" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
+        <v>1050</v>
+      </c>
+      <c r="T68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M69" t="n">
         <v>50</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N69" t="n">
         <v>9000</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O69" t="n">
         <v>9000</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P69" t="n">
         <v>9000</v>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S67" t="n">
+      <c r="S69" t="n">
         <v>900</v>
       </c>
-      <c r="T67" t="n">
+      <c r="T69" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>8000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44202</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44202</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44532</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>14000</v>
@@ -1017,19 +1017,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>967</v>
+        <v>1450</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20571</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>2057</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>12467</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1050</v>
+        <v>1781</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>14545</v>
+        <v>17588</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1454</v>
+        <v>1759</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1567,13 +1567,13 @@
         <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44526</v>
+        <v>44169</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1653,23 +1653,23 @@
         <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>15545</v>
+        <v>15500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3109</v>
+        <v>1550</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44523</v>
+        <v>44169</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,38 +1715,38 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>20571</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2057</v>
+        <v>1300</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44169</v>
+        <v>44215</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44169</v>
+        <v>44215</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>12467</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1781</v>
+        <v>2100</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44524</v>
+        <v>44530</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>17588</v>
+        <v>15500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1759</v>
+        <v>3100</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44194</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>825</v>
+        <v>2400</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44194</v>
+        <v>44203</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44203</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44194</v>
+        <v>44537</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44202</v>
+        <v>44537</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>9500</v>
+        <v>14545</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>950</v>
+        <v>1454</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44162</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,12 +2755,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -2770,10 +2770,10 @@
         <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P30" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44533</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1450</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2927,13 +2927,13 @@
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44540</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>8727</v>
+        <v>15500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>873</v>
+        <v>1550</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44540</v>
+        <v>44209</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,29 +3084,29 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>8625</v>
+        <v>9500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>862</v>
+        <v>950</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44209</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44195</v>
+        <v>44525</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,38 +3235,38 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>15571</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>1557</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44530</v>
+        <v>44525</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
         <v>15000</v>
@@ -3333,11 +3333,11 @@
         <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>15500</v>
+        <v>15375</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3100</v>
+        <v>1538</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44196</v>
+        <v>44533</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O39" t="n">
         <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44196</v>
+        <v>44532</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44188</v>
+        <v>44532</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,29 +3635,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44188</v>
+        <v>44526</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N42" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>9000</v>
+        <v>15545</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>3109</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3887,13 +3887,13 @@
         <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44159</v>
+        <v>44168</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3967,13 +3967,13 @@
         <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>32000</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44518</v>
+        <v>44208</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44168</v>
+        <v>44187</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44168</v>
+        <v>44187</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44168</v>
+        <v>44187</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P52" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44215</v>
+        <v>44187</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44215</v>
+        <v>44196</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44204</v>
+        <v>44196</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -4770,10 +4770,10 @@
         <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44204</v>
+        <v>44188</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P56" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1450</v>
+        <v>900</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44166</v>
+        <v>44188</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P59" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44525</v>
+        <v>44195</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>15571</v>
+        <v>10500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1557</v>
+        <v>1050</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44525</v>
+        <v>44195</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>15375</v>
+        <v>9000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1538</v>
+        <v>900</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5327,13 +5327,13 @@
         <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="P62" t="n">
-        <v>15500</v>
+        <v>8250</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1550</v>
+        <v>825</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5407,13 +5407,13 @@
         <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44211</v>
+        <v>44194</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S64" t="n">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44211</v>
+        <v>44194</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S65" t="n">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44189</v>
+        <v>44518</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="P66" t="n">
-        <v>9500</v>
+        <v>32000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>950</v>
+        <v>3200</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44189</v>
+        <v>44518</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="P67" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44189</v>
+        <v>44540</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,20 +5804,20 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P68" t="n">
-        <v>10500</v>
+        <v>8727</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1050</v>
+        <v>873</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44189</v>
+        <v>44540</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,38 +5875,38 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O69" t="n">
         <v>9000</v>
       </c>
       <c r="P69" t="n">
-        <v>9000</v>
+        <v>8625</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2207,29 +2207,29 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P23" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3100</v>
+        <v>650</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2287,29 +2287,29 @@
         <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44203</v>
+        <v>44544</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44203</v>
+        <v>44544</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2447,13 +2447,13 @@
         <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44537</v>
+        <v>44530</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>14545</v>
+        <v>15500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1454</v>
+        <v>3100</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44162</v>
+        <v>44530</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,29 +2675,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44203</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44537</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44537</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N33" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O33" t="n">
         <v>15000</v>
       </c>
-      <c r="O33" t="n">
-        <v>16000</v>
-      </c>
       <c r="P33" t="n">
-        <v>15500</v>
+        <v>14545</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1550</v>
+        <v>1454</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,29 +3244,29 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O36" t="n">
         <v>15000</v>
       </c>
-      <c r="O36" t="n">
-        <v>16000</v>
-      </c>
       <c r="P36" t="n">
-        <v>15571</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>15375</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1538</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44166</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44533</v>
+        <v>44209</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44532</v>
+        <v>44209</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44532</v>
+        <v>44525</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>15571</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>1557</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
         <v>15000</v>
@@ -3733,11 +3733,11 @@
         <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>15545</v>
+        <v>15375</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3109</v>
+        <v>1538</v>
       </c>
       <c r="T42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O45" t="n">
         <v>15000</v>
       </c>
-      <c r="O45" t="n">
-        <v>16000</v>
-      </c>
       <c r="P45" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1550</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44160</v>
+        <v>44532</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44160</v>
+        <v>44526</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44196</v>
+        <v>44208</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P54" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
         <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P57" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P60" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O62" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P62" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -5490,10 +5490,10 @@
         <v>9000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P64" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44518</v>
+        <v>44195</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O66" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="P66" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>3200</v>
+        <v>900</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>28000</v>
+        <v>8500</v>
       </c>
       <c r="P67" t="n">
-        <v>28000</v>
+        <v>8250</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>2800</v>
+        <v>825</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5800,33 +5800,33 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="O68" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P68" t="n">
-        <v>8727</v>
+        <v>7500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>873</v>
+        <v>750</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,68 +5847,468 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>100</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P69" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
+        <v>950</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>50</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>800</v>
+      </c>
+      <c r="T70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>50</v>
+      </c>
+      <c r="N71" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O71" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P71" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>3200</v>
+      </c>
+      <c r="T71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>50</v>
+      </c>
+      <c r="N72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P72" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E69" t="n">
-        <v>8</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>220</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P73" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>873</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M74" t="n">
         <v>80</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N74" t="n">
         <v>8000</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O74" t="n">
         <v>9000</v>
       </c>
-      <c r="P69" t="n">
+      <c r="P74" t="n">
         <v>8625</v>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S69" t="n">
+      <c r="S74" t="n">
         <v>862</v>
       </c>
-      <c r="T69" t="n">
+      <c r="T74" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44202</v>
+        <v>44547</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44202</v>
+        <v>44547</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44547</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>850</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>44547</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,38 +1075,38 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>20571</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2057</v>
+        <v>700</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44202</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>12467</v>
+        <v>9500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1781</v>
+        <v>950</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44524</v>
+        <v>44202</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,38 +1235,38 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>17588</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1759</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>950</v>
+        <v>1450</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>20571</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>2057</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>12467</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1050</v>
+        <v>1781</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>9000</v>
+        <v>17588</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>900</v>
+        <v>1759</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1887,13 +1887,13 @@
         <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44517</v>
+        <v>44169</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44544</v>
+        <v>44169</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>500</v>
+        <v>1050</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P28" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -2697,19 +2697,19 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44203</v>
+        <v>44544</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
         <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44203</v>
+        <v>44544</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44537</v>
+        <v>44530</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>3100</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44537</v>
+        <v>44530</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>14545</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1454</v>
+        <v>2400</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44537</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44537</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>14545</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1200</v>
+        <v>1454</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,38 +3635,38 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>15571</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1557</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
         <v>15000</v>
@@ -3733,7 +3733,7 @@
         <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44533</v>
+        <v>44209</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1350</v>
+        <v>950</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44533</v>
+        <v>44209</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44532</v>
+        <v>44525</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>15571</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>1557</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44532</v>
+        <v>44525</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>15375</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1538</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>15545</v>
+        <v>13500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3109</v>
+        <v>1350</v>
       </c>
       <c r="T47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1300</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,29 +4355,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P50" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44160</v>
+        <v>44526</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N51" t="n">
         <v>15000</v>
@@ -4453,11 +4453,11 @@
         <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,13 +4767,13 @@
         <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4847,13 +4847,13 @@
         <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S57" t="n">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5007,13 +5007,13 @@
         <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5087,13 +5087,13 @@
         <v>200</v>
       </c>
       <c r="N59" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O59" t="n">
         <v>10000</v>
       </c>
-      <c r="O59" t="n">
-        <v>11000</v>
-      </c>
       <c r="P59" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5167,13 +5167,13 @@
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5327,13 +5327,13 @@
         <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5727,13 +5727,13 @@
         <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5807,13 +5807,13 @@
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O68" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P68" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5887,13 +5887,13 @@
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5967,13 +5967,13 @@
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="O71" t="n">
-        <v>32000</v>
+        <v>8500</v>
       </c>
       <c r="P71" t="n">
-        <v>32000</v>
+        <v>8250</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>3200</v>
+        <v>825</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="O72" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="P72" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>2800</v>
+        <v>750</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O73" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>8727</v>
+        <v>9500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,40 +6275,360 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
         <v>8000</v>
       </c>
       <c r="O74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>800</v>
+      </c>
+      <c r="T74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>50</v>
+      </c>
+      <c r="N75" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O75" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P75" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>3200</v>
+      </c>
+      <c r="T75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>50</v>
+      </c>
+      <c r="N76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P76" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>220</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O77" t="n">
         <v>9000</v>
       </c>
-      <c r="P74" t="n">
+      <c r="P77" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>873</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>80</v>
+      </c>
+      <c r="N78" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P78" t="n">
         <v>8625</v>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S74" t="n">
+      <c r="S78" t="n">
         <v>862</v>
       </c>
-      <c r="T74" t="n">
+      <c r="T78" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44552</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,29 +524,29 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P2" t="n">
-        <v>9500</v>
+        <v>6227</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>950</v>
+        <v>623</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44552</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44211</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44547</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44547</v>
+        <v>44211</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44202</v>
+        <v>44547</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O10" t="n">
         <v>9000</v>
       </c>
-      <c r="O10" t="n">
-        <v>10000</v>
-      </c>
       <c r="P10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44202</v>
+        <v>44547</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1247,13 +1247,13 @@
         <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44202</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>20571</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>12467</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1781</v>
+        <v>1450</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>17588</v>
+        <v>20571</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1759</v>
+        <v>2057</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P16" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,38 +1715,38 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O18" t="n">
         <v>10000</v>
       </c>
-      <c r="O18" t="n">
-        <v>11000</v>
-      </c>
       <c r="P18" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O22" t="n">
         <v>16000</v>
       </c>
-      <c r="O22" t="n">
-        <v>17000</v>
-      </c>
       <c r="P22" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44517</v>
+        <v>44215</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P27" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,13 +2767,13 @@
         <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,41 +2915,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3087,29 +3087,29 @@
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3167,29 +3167,29 @@
         <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O36" t="n">
         <v>10000</v>
       </c>
-      <c r="O36" t="n">
-        <v>11000</v>
-      </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>14545</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1300</v>
+        <v>1454</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3567,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3727,13 +3727,13 @@
         <v>200</v>
       </c>
       <c r="N42" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O42" t="n">
         <v>15000</v>
       </c>
-      <c r="O42" t="n">
-        <v>16000</v>
-      </c>
       <c r="P42" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,29 +3964,29 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1100</v>
+        <v>1538</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,29 +4287,29 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O49" t="n">
         <v>14000</v>
       </c>
-      <c r="O49" t="n">
-        <v>15000</v>
-      </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>1350</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,29 +4367,29 @@
         <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O51" t="n">
         <v>15000</v>
       </c>
-      <c r="O51" t="n">
-        <v>16000</v>
-      </c>
       <c r="P51" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>3109</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P52" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,41 +4595,41 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O61" t="n">
         <v>10000</v>
       </c>
-      <c r="O61" t="n">
-        <v>11000</v>
-      </c>
       <c r="P61" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
         <v>8000</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
         <v>10000</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N64" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O64" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
         <v>10000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
         <v>9000</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
         <v>10000</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N68" t="n">
         <v>9000</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
         <v>10000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
         <v>9000</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P73" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6447,13 +6447,13 @@
         <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N77" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P77" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,68 +6567,228 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>50</v>
+      </c>
+      <c r="N78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P78" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="E79" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>220</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P79" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>873</v>
+      </c>
+      <c r="T79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="M80" t="n">
         <v>80</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N80" t="n">
         <v>8000</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O80" t="n">
         <v>9000</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P80" t="n">
         <v>8625</v>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S78" t="n">
+      <c r="S80" t="n">
         <v>862</v>
       </c>
-      <c r="T78" t="n">
+      <c r="T80" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P57" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O63" t="n">
         <v>10000</v>
       </c>
-      <c r="O63" t="n">
-        <v>11000</v>
-      </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
         <v>8000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
         <v>10000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O66" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
         <v>10000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
         <v>9000</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
         <v>10000</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N70" t="n">
         <v>9000</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
         <v>10000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
         <v>9000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O77" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6607,13 +6607,13 @@
         <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,29 +6684,29 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N79" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P79" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,68 +6727,228 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>50</v>
+      </c>
+      <c r="N80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P80" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E80" t="n">
-        <v>8</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="E81" t="n">
+        <v>8</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>220</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O81" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P81" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>873</v>
+      </c>
+      <c r="T81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="M82" t="n">
         <v>80</v>
       </c>
-      <c r="N80" t="n">
+      <c r="N82" t="n">
         <v>8000</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O82" t="n">
         <v>9000</v>
       </c>
-      <c r="P80" t="n">
+      <c r="P82" t="n">
         <v>8625</v>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S80" t="n">
+      <c r="S82" t="n">
         <v>862</v>
       </c>
-      <c r="T80" t="n">
+      <c r="T82" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44202</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,17 +1327,17 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44202</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44202</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>20571</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2057</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>12467</v>
+        <v>14500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1781</v>
+        <v>1450</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>17588</v>
+        <v>20571</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1759</v>
+        <v>2057</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,38 +1875,38 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O20" t="n">
         <v>10000</v>
       </c>
-      <c r="O20" t="n">
-        <v>11000</v>
-      </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P22" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O24" t="n">
         <v>16000</v>
       </c>
-      <c r="O24" t="n">
-        <v>17000</v>
-      </c>
       <c r="P24" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P26" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44517</v>
+        <v>44215</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2927,13 +2927,13 @@
         <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3247,29 +3247,29 @@
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3327,29 +3327,29 @@
         <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O38" t="n">
         <v>10000</v>
       </c>
-      <c r="O38" t="n">
-        <v>11000</v>
-      </c>
       <c r="P38" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>13000</v>
+        <v>14545</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1300</v>
+        <v>1454</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3727,13 +3727,13 @@
         <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="N44" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O44" t="n">
         <v>15000</v>
       </c>
-      <c r="O44" t="n">
-        <v>16000</v>
-      </c>
       <c r="P44" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,29 +4124,29 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>80</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1100</v>
+        <v>1538</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,29 +4447,29 @@
         <v>100</v>
       </c>
       <c r="N51" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O51" t="n">
         <v>14000</v>
       </c>
-      <c r="O51" t="n">
-        <v>15000</v>
-      </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>1350</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,29 +4527,29 @@
         <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P52" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O53" t="n">
         <v>15000</v>
       </c>
-      <c r="O53" t="n">
-        <v>16000</v>
-      </c>
       <c r="P53" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>3109</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,41 +4755,41 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,38 +4915,38 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>5200</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5004,29 +5004,29 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>7227</v>
+        <v>15500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>723</v>
+        <v>1550</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P59" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44208</v>
+        <v>44160</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N64" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O64" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P64" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O65" t="n">
         <v>10000</v>
       </c>
-      <c r="O65" t="n">
-        <v>11000</v>
-      </c>
       <c r="P65" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
         <v>8000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
         <v>10000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N68" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
         <v>10000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
         <v>9000</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
         <v>10000</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
         <v>9000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
         <v>10000</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
         <v>9000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P77" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6767,13 +6767,13 @@
         <v>50</v>
       </c>
       <c r="N80" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,29 +6844,29 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N81" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P81" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,68 +6887,228 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>50</v>
+      </c>
+      <c r="N82" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O82" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P82" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E82" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="E83" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>220</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P83" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>873</v>
+      </c>
+      <c r="T83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="M84" t="n">
         <v>80</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N84" t="n">
         <v>8000</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O84" t="n">
         <v>9000</v>
       </c>
-      <c r="P82" t="n">
+      <c r="P84" t="n">
         <v>8625</v>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S82" t="n">
+      <c r="S84" t="n">
         <v>862</v>
       </c>
-      <c r="T82" t="n">
+      <c r="T84" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5407,13 +5407,13 @@
         <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5487,13 +5487,13 @@
         <v>50</v>
       </c>
       <c r="N64" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O64" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P64" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O66" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P66" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O67" t="n">
         <v>10000</v>
       </c>
-      <c r="O67" t="n">
-        <v>11000</v>
-      </c>
       <c r="P67" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
         <v>8000</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
         <v>10000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
         <v>10000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
         <v>9000</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
         <v>10000</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
         <v>9000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
         <v>10000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
         <v>9000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P79" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6927,13 +6927,13 @@
         <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N83" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P83" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,68 +7047,228 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>50</v>
+      </c>
+      <c r="N84" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O84" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P84" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E84" t="n">
-        <v>8</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="E85" t="n">
+        <v>8</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>220</v>
+      </c>
+      <c r="N85" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O85" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P85" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>873</v>
+      </c>
+      <c r="T85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="M86" t="n">
         <v>80</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N86" t="n">
         <v>8000</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O86" t="n">
         <v>9000</v>
       </c>
-      <c r="P84" t="n">
+      <c r="P86" t="n">
         <v>8625</v>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S84" t="n">
+      <c r="S86" t="n">
         <v>862</v>
       </c>
-      <c r="T84" t="n">
+      <c r="T86" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,29 +1644,29 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P16" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1450</v>
+        <v>525</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="P17" t="n">
-        <v>20571</v>
+        <v>4500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2057</v>
+        <v>450</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>12467</v>
+        <v>14500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1781</v>
+        <v>1450</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>17588</v>
+        <v>20571</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1759</v>
+        <v>2057</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,38 +2035,38 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O22" t="n">
         <v>10000</v>
       </c>
-      <c r="O22" t="n">
-        <v>11000</v>
-      </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O26" t="n">
         <v>16000</v>
       </c>
-      <c r="O26" t="n">
-        <v>17000</v>
-      </c>
       <c r="P26" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44517</v>
+        <v>44215</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P31" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3087,13 +3087,13 @@
         <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3407,29 +3407,29 @@
         <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3487,29 +3487,29 @@
         <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O40" t="n">
         <v>10000</v>
       </c>
-      <c r="O40" t="n">
-        <v>11000</v>
-      </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>14545</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1300</v>
+        <v>1454</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3967,13 +3967,13 @@
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>200</v>
       </c>
       <c r="N46" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O46" t="n">
         <v>15000</v>
       </c>
-      <c r="O46" t="n">
-        <v>16000</v>
-      </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,29 +4284,29 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N52" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1100</v>
+        <v>1538</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4607,29 +4607,29 @@
         <v>100</v>
       </c>
       <c r="N53" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O53" t="n">
         <v>14000</v>
       </c>
-      <c r="O53" t="n">
-        <v>15000</v>
-      </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>1350</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4687,29 +4687,29 @@
         <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O55" t="n">
         <v>15000</v>
       </c>
-      <c r="O55" t="n">
-        <v>16000</v>
-      </c>
       <c r="P55" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>3109</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,41 +4915,41 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,38 +5075,38 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>5200</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>7227</v>
+        <v>15500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>723</v>
+        <v>1550</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P61" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>475</v>
+        <v>1550</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5567,13 +5567,13 @@
         <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5647,13 +5647,13 @@
         <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O66" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P66" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N68" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P68" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O69" t="n">
         <v>10000</v>
       </c>
-      <c r="O69" t="n">
-        <v>11000</v>
-      </c>
       <c r="P69" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
         <v>8000</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
         <v>10000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
         <v>10000</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
         <v>9000</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
         <v>10000</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
         <v>9000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
         <v>10000</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
         <v>9000</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N80" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P81" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7087,13 +7087,13 @@
         <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,29 +7164,29 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P85" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,68 +7207,228 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>50</v>
+      </c>
+      <c r="N86" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O86" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P86" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E86" t="n">
-        <v>8</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="E87" t="n">
+        <v>8</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>220</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O87" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P87" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>873</v>
+      </c>
+      <c r="T87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M88" t="n">
         <v>80</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N88" t="n">
         <v>8000</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O88" t="n">
         <v>9000</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P88" t="n">
         <v>8625</v>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S86" t="n">
+      <c r="S88" t="n">
         <v>862</v>
       </c>
-      <c r="T86" t="n">
+      <c r="T88" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="n">
         <v>6000</v>
       </c>
-      <c r="O8" t="n">
-        <v>7000</v>
-      </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44547</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,17 +1327,17 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P12" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44547</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>4750</v>
+        <v>7000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44202</v>
+        <v>44558</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,17 +1487,17 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44202</v>
+        <v>44558</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1647,17 +1647,17 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>525</v>
+        <v>950</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,17 +1727,17 @@
         <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,29 +1804,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P18" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1450</v>
+        <v>525</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="P19" t="n">
-        <v>20571</v>
+        <v>4500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2057</v>
+        <v>450</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>12467</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1781</v>
+        <v>1450</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>17588</v>
+        <v>20571</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1759</v>
+        <v>2057</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,38 +2195,38 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O24" t="n">
         <v>10000</v>
       </c>
-      <c r="O24" t="n">
-        <v>11000</v>
-      </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P27" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O28" t="n">
         <v>16000</v>
       </c>
-      <c r="O28" t="n">
-        <v>17000</v>
-      </c>
       <c r="P28" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P30" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44517</v>
+        <v>44215</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,41 +3475,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="T39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3567,29 +3567,29 @@
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3647,29 +3647,29 @@
         <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O42" t="n">
         <v>10000</v>
       </c>
-      <c r="O42" t="n">
-        <v>11000</v>
-      </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>14545</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1300</v>
+        <v>1454</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>200</v>
       </c>
       <c r="N48" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O48" t="n">
         <v>15000</v>
       </c>
-      <c r="O48" t="n">
-        <v>16000</v>
-      </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P49" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,29 +4444,29 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>80</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1100</v>
+        <v>1538</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,29 +4767,29 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O55" t="n">
         <v>14000</v>
       </c>
-      <c r="O55" t="n">
-        <v>15000</v>
-      </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>1350</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4847,29 +4847,29 @@
         <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P56" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,32 +4924,32 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O57" t="n">
         <v>15000</v>
       </c>
-      <c r="O57" t="n">
-        <v>16000</v>
-      </c>
       <c r="P57" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>3109</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,38 +5235,38 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>5200</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5324,29 +5324,29 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>7227</v>
+        <v>15500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>723</v>
+        <v>1550</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P63" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>475</v>
+        <v>1550</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5727,13 +5727,13 @@
         <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P67" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5807,13 +5807,13 @@
         <v>50</v>
       </c>
       <c r="N68" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O68" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P68" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O71" t="n">
         <v>10000</v>
       </c>
-      <c r="O71" t="n">
-        <v>11000</v>
-      </c>
       <c r="P71" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
         <v>8000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
         <v>10000</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
         <v>10000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
         <v>9000</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
         <v>10000</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
         <v>9000</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
         <v>10000</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
         <v>9000</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P83" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P85" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7247,13 +7247,13 @@
         <v>50</v>
       </c>
       <c r="N86" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,29 +7324,29 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N87" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O87" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P87" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,68 +7367,228 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>50</v>
+      </c>
+      <c r="N88" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O88" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P88" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>11</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E88" t="n">
-        <v>8</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>220</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P89" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
+        <v>873</v>
+      </c>
+      <c r="T89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="M90" t="n">
         <v>80</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N90" t="n">
         <v>8000</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O90" t="n">
         <v>9000</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P90" t="n">
         <v>8625</v>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="S90" t="n">
         <v>862</v>
       </c>
-      <c r="T88" t="n">
+      <c r="T90" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44202</v>
+        <v>44565</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>9500</v>
+        <v>4400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>950</v>
+        <v>440</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44202</v>
+        <v>44565</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,38 +1715,38 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>5227</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>523</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1807,17 +1807,17 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>5250</v>
+        <v>9500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>525</v>
+        <v>950</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1887,17 +1887,17 @@
         <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,29 +1964,29 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>5250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1450</v>
+        <v>525</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="P21" t="n">
-        <v>20571</v>
+        <v>4500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2057</v>
+        <v>450</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>12467</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1781</v>
+        <v>1450</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>17588</v>
+        <v>20571</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1759</v>
+        <v>2057</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P24" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44189</v>
+        <v>44524</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,38 +2355,38 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O26" t="n">
         <v>10000</v>
       </c>
-      <c r="O26" t="n">
-        <v>11000</v>
-      </c>
       <c r="P26" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O30" t="n">
         <v>16000</v>
       </c>
-      <c r="O30" t="n">
-        <v>17000</v>
-      </c>
       <c r="P30" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>1650</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44517</v>
+        <v>44215</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44544</v>
+        <v>44215</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44544</v>
+        <v>44517</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O36" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3407,13 +3407,13 @@
         <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="T41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3727,29 +3727,29 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>950</v>
+        <v>3100</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44203</v>
+        <v>44530</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3807,29 +3807,29 @@
         <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O44" t="n">
         <v>10000</v>
       </c>
-      <c r="O44" t="n">
-        <v>11000</v>
-      </c>
       <c r="P44" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44537</v>
+        <v>44203</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>14545</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1300</v>
+        <v>1454</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>200</v>
       </c>
       <c r="N50" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O50" t="n">
         <v>15000</v>
       </c>
-      <c r="O50" t="n">
-        <v>16000</v>
-      </c>
       <c r="P50" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,20 +4764,20 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>13500</v>
+        <v>15571</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>15375</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1100</v>
+        <v>1538</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,29 +4927,29 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O57" t="n">
         <v>14000</v>
       </c>
-      <c r="O57" t="n">
-        <v>15000</v>
-      </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>1350</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5007,29 +5007,29 @@
         <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,32 +5084,32 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O59" t="n">
         <v>15000</v>
       </c>
-      <c r="O59" t="n">
-        <v>16000</v>
-      </c>
       <c r="P59" t="n">
-        <v>15545</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>3109</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P60" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,41 +5235,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,38 +5395,38 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>5200</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5484,29 +5484,29 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>7227</v>
+        <v>15500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>723</v>
+        <v>1550</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,29 +5635,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>475</v>
+        <v>1550</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5887,13 +5887,13 @@
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O69" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P69" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5967,13 +5967,13 @@
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O73" t="n">
         <v>10000</v>
       </c>
-      <c r="O73" t="n">
-        <v>11000</v>
-      </c>
       <c r="P73" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
         <v>8000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
         <v>10000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
         <v>10000</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
         <v>9000</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
         <v>10000</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N80" t="n">
         <v>9000</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
         <v>10000</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
         <v>9000</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O84" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P85" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O86" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P86" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7407,13 +7407,13 @@
         <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,29 +7484,29 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N89" t="n">
-        <v>8500</v>
+        <v>32000</v>
       </c>
       <c r="O89" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="P89" t="n">
-        <v>8727</v>
+        <v>32000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>873</v>
+        <v>3200</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,68 +7527,228 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>50</v>
+      </c>
+      <c r="N90" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O90" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P90" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E90" t="n">
-        <v>8</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="E91" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>220</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O91" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P91" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S91" t="n">
+        <v>873</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="M92" t="n">
         <v>80</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N92" t="n">
         <v>8000</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O92" t="n">
         <v>9000</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P92" t="n">
         <v>8625</v>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S90" t="n">
+      <c r="S92" t="n">
         <v>862</v>
       </c>
-      <c r="T90" t="n">
+      <c r="T92" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44209</v>
+        <v>44566</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P53" t="n">
-        <v>9500</v>
+        <v>5700</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>950</v>
+        <v>570</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,38 +4755,38 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>15571</v>
+        <v>8000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1557</v>
+        <v>800</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N56" t="n">
         <v>15000</v>
@@ -4853,11 +4853,11 @@
         <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>15375</v>
+        <v>15571</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1538</v>
+        <v>1557</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13500</v>
+        <v>15375</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1350</v>
+        <v>1538</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,41 +5235,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>15545</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>3109</v>
+        <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N62" t="n">
         <v>15000</v>
@@ -5333,23 +5333,23 @@
         <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>5200</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>520</v>
+        <v>1550</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O66" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P66" t="n">
-        <v>7227</v>
+        <v>5200</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P67" t="n">
-        <v>15500</v>
+        <v>7227</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1550</v>
+        <v>723</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P69" t="n">
-        <v>4750</v>
+        <v>13000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>475</v>
+        <v>1300</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O70" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P70" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P71" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P72" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N73" t="n">
         <v>9000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P73" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P82" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P83" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P86" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P87" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>50</v>
       </c>
       <c r="N89" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="O89" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>50</v>
       </c>
       <c r="N90" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O90" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P90" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,38 +7635,38 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N91" t="n">
-        <v>8500</v>
+        <v>28000</v>
       </c>
       <c r="O91" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="P91" t="n">
-        <v>8727</v>
+        <v>28000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>873</v>
+        <v>2800</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7724,31 +7724,111 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O92" t="n">
         <v>9000</v>
       </c>
       <c r="P92" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S92" t="n">
+        <v>873</v>
+      </c>
+      <c r="T92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>80</v>
+      </c>
+      <c r="N93" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O93" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P93" t="n">
         <v>8625</v>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S92" t="n">
+      <c r="S93" t="n">
         <v>862</v>
       </c>
-      <c r="T92" t="n">
+      <c r="T93" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44532</v>
+        <v>44567</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,32 +5164,32 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>5222</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>522</v>
       </c>
       <c r="T60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44526</v>
+        <v>44532</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,41 +5315,41 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>15545</v>
+        <v>12000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>3109</v>
+        <v>800</v>
       </c>
       <c r="T62" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N63" t="n">
         <v>15000</v>
@@ -5413,23 +5413,23 @@
         <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>15500</v>
+        <v>15545</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1550</v>
+        <v>3109</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,29 +5644,29 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>5200</v>
+        <v>15500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>520</v>
+        <v>1550</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O67" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P67" t="n">
-        <v>7227</v>
+        <v>5200</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>723</v>
+        <v>520</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,20 +5804,20 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P68" t="n">
-        <v>15500</v>
+        <v>7227</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1550</v>
+        <v>723</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P69" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>4750</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>475</v>
+        <v>1300</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O71" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P71" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P72" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
         <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O84" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P85" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N86" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O86" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P86" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N87" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O87" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P87" t="n">
-        <v>7500</v>
+        <v>6737</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P88" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="O90" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>32000</v>
+        <v>9500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>3200</v>
+        <v>950</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7647,13 +7647,13 @@
         <v>50</v>
       </c>
       <c r="N91" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,38 +7715,38 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N92" t="n">
-        <v>8500</v>
+        <v>28000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="P92" t="n">
-        <v>8727</v>
+        <v>28000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>873</v>
+        <v>2800</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,31 +7804,111 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O93" t="n">
         <v>9000</v>
       </c>
       <c r="P93" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
+        <v>873</v>
+      </c>
+      <c r="T93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>80</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P94" t="n">
         <v>8625</v>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S93" t="n">
+      <c r="S94" t="n">
         <v>862</v>
       </c>
-      <c r="T93" t="n">
+      <c r="T94" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44526</v>
+        <v>44572</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,32 +5404,32 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P63" t="n">
-        <v>15545</v>
+        <v>5750</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>3109</v>
+        <v>575</v>
       </c>
       <c r="T63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44572</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,38 +5475,38 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P64" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,38 +5715,38 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>5200</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>520</v>
+        <v>1300</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5804,29 +5804,29 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P68" t="n">
-        <v>7227</v>
+        <v>15500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>723</v>
+        <v>1550</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O69" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P69" t="n">
-        <v>15500</v>
+        <v>5200</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1550</v>
+        <v>520</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>7227</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1300</v>
+        <v>723</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>4750</v>
+        <v>15500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>475</v>
+        <v>1550</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6207,13 +6207,13 @@
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P73" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6287,13 +6287,13 @@
         <v>50</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P74" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O77" t="n">
         <v>10000</v>
       </c>
-      <c r="O77" t="n">
-        <v>11000</v>
-      </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
         <v>8000</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
         <v>10000</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44196</v>
+        <v>44187</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
         <v>10000</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
         <v>9000</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
         <v>10000</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
         <v>9000</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
         <v>10000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
         <v>9000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44568</v>
+        <v>44195</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P87" t="n">
-        <v>6737</v>
+        <v>10500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>674</v>
+        <v>1050</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O88" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P88" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44194</v>
+        <v>44568</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N89" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O89" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>7500</v>
+        <v>6737</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P90" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>950</v>
+        <v>825</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>28000</v>
+        <v>9500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>2800</v>
+        <v>950</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7795,38 +7795,38 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>8727</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7847,68 +7847,228 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>50</v>
+      </c>
+      <c r="N94" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O94" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P94" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E94" t="n">
-        <v>8</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>220</v>
+      </c>
+      <c r="N95" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O95" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P95" t="n">
+        <v>8727</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
+        <v>873</v>
+      </c>
+      <c r="T95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="M96" t="n">
         <v>80</v>
       </c>
-      <c r="N94" t="n">
+      <c r="N96" t="n">
         <v>8000</v>
       </c>
-      <c r="O94" t="n">
+      <c r="O96" t="n">
         <v>9000</v>
       </c>
-      <c r="P94" t="n">
+      <c r="P96" t="n">
         <v>8625</v>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S94" t="n">
+      <c r="S96" t="n">
         <v>862</v>
       </c>
-      <c r="T94" t="n">
+      <c r="T96" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44552</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,29 +524,29 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>6227</v>
+        <v>9500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>623</v>
+        <v>950</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44552</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44565</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>9500</v>
+        <v>4400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>950</v>
+        <v>440</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44565</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -755,38 +755,38 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>5227</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>523</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44568</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>9500</v>
+        <v>6737</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>674</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44211</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P8" t="n">
-        <v>5500</v>
+        <v>7227</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44561</v>
+        <v>44566</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,33 +1080,33 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44565</v>
+        <v>44518</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>4400</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>440</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44565</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,29 +1724,29 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P17" t="n">
-        <v>5227</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>523</v>
+        <v>1050</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44202</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
         <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P18" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44202</v>
+        <v>44561</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O20" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P20" t="n">
-        <v>5250</v>
+        <v>4000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44560</v>
+        <v>44537</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,33 +2040,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44537</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N22" t="n">
         <v>14000</v>
@@ -2133,7 +2133,7 @@
         <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>14545</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>20571</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2057</v>
+        <v>1450</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44524</v>
+        <v>44572</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O24" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P24" t="n">
-        <v>12467</v>
+        <v>5750</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1781</v>
+        <v>575</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44524</v>
+        <v>44572</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P25" t="n">
-        <v>17588</v>
+        <v>5000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1759</v>
+        <v>500</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
         <v>10000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
         <v>9000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,13 +2767,13 @@
         <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,13 +2847,13 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2927,13 +2927,13 @@
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3007,13 +3007,13 @@
         <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3087,13 +3087,13 @@
         <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>1450</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44215</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3167,13 +3167,13 @@
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44517</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>21000</v>
+        <v>15500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2100</v>
+        <v>1550</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44544</v>
+        <v>44530</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3327,29 +3327,29 @@
         <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>650</v>
+        <v>3100</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44544</v>
+        <v>44530</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3407,29 +3407,29 @@
         <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44544</v>
+        <v>44202</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44544</v>
+        <v>44202</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3567,13 +3567,13 @@
         <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44544</v>
+        <v>44187</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44530</v>
+        <v>44187</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3720,36 +3720,36 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3100</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44530</v>
+        <v>44187</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2400</v>
+        <v>1050</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44203</v>
+        <v>44187</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44203</v>
+        <v>44540</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3960,33 +3960,33 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>8727</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>873</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44537</v>
+        <v>44540</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>8625</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1050</v>
+        <v>862</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44537</v>
+        <v>44567</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P47" t="n">
-        <v>14545</v>
+        <v>5222</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1454</v>
+        <v>522</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44162</v>
+        <v>44524</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P48" t="n">
-        <v>15500</v>
+        <v>12467</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1550</v>
+        <v>1781</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44162</v>
+        <v>44524</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>17588</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1300</v>
+        <v>1759</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44215</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44166</v>
+        <v>44523</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,29 +4524,29 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P52" t="n">
-        <v>15500</v>
+        <v>20571</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1550</v>
+        <v>2057</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O53" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P53" t="n">
-        <v>5700</v>
+        <v>6250</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44209</v>
+        <v>44573</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,38 +4675,38 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P54" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44209</v>
+        <v>44204</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44525</v>
+        <v>44204</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,38 +4835,38 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>15571</v>
+        <v>8000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1557</v>
+        <v>800</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44525</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N57" t="n">
         <v>15000</v>
@@ -4933,7 +4933,7 @@
         <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>15375</v>
+        <v>15500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -5010,10 +5010,10 @@
         <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44567</v>
+        <v>44544</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P60" t="n">
-        <v>5222</v>
+        <v>6500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>522</v>
+        <v>650</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44532</v>
+        <v>44544</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>500</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44532</v>
+        <v>44544</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,12 +5315,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44572</v>
+        <v>44544</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,38 +5395,38 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>5750</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44572</v>
+        <v>44544</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,38 +5475,38 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O64" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P64" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44526</v>
+        <v>44160</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
         <v>15000</v>
@@ -5573,11 +5573,11 @@
         <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>15545</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>3109</v>
+        <v>1550</v>
       </c>
       <c r="T65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44168</v>
+        <v>44526</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>15545</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1300</v>
+        <v>3109</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44168</v>
+        <v>44211</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1550</v>
+        <v>950</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44553</v>
+        <v>44211</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5880,33 +5880,33 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N69" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O69" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44553</v>
+        <v>44209</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,29 +5964,29 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>7227</v>
+        <v>9500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>723</v>
+        <v>950</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44160</v>
+        <v>44517</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6127,13 +6127,13 @@
         <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44559</v>
+        <v>44196</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>475</v>
+        <v>1050</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44559</v>
+        <v>44196</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P77" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S79" t="n">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6767,13 +6767,13 @@
         <v>50</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P81" t="n">
-        <v>10500</v>
+        <v>5250</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1050</v>
+        <v>525</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P82" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44188</v>
+        <v>44552</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P83" t="n">
-        <v>10500</v>
+        <v>6227</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1050</v>
+        <v>623</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44188</v>
+        <v>44552</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7080,33 +7080,33 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44188</v>
+        <v>44558</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44188</v>
+        <v>44558</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O86" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P86" t="n">
-        <v>9000</v>
+        <v>4750</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>900</v>
+        <v>475</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P87" t="n">
-        <v>10500</v>
+        <v>8250</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1050</v>
+        <v>825</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O88" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P88" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44568</v>
+        <v>44194</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O89" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>6737</v>
+        <v>9500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N90" t="n">
         <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P91" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>750</v>
+        <v>1550</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P92" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44194</v>
+        <v>44532</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7795,41 +7795,41 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44518</v>
+        <v>44532</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7887,29 +7887,29 @@
         <v>50</v>
       </c>
       <c r="N94" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P95" t="n">
-        <v>8727</v>
+        <v>13500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>873</v>
+        <v>1350</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,40 +8035,200 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>50</v>
+      </c>
+      <c r="N96" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O96" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P96" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S96" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>70</v>
+      </c>
+      <c r="N97" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O97" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P97" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S97" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="M98" t="n">
         <v>80</v>
       </c>
-      <c r="N96" t="n">
-        <v>8000</v>
-      </c>
-      <c r="O96" t="n">
-        <v>9000</v>
-      </c>
-      <c r="P96" t="n">
-        <v>8625</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
+      <c r="N98" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O98" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P98" t="n">
+        <v>15375</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S96" t="n">
-        <v>862</v>
-      </c>
-      <c r="T96" t="n">
+      <c r="S98" t="n">
+        <v>1538</v>
+      </c>
+      <c r="T98" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P57" t="n">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5007,13 +5007,13 @@
         <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P59" t="n">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O60" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P60" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44526</v>
+        <v>44544</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>15545</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>3109</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44211</v>
+        <v>44544</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5807,13 +5807,13 @@
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P69" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44209</v>
+        <v>44160</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44209</v>
+        <v>44526</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,41 +6035,41 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N71" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>8000</v>
+        <v>15545</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>800</v>
+        <v>3109</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44517</v>
+        <v>44211</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>2100</v>
+        <v>950</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44196</v>
+        <v>44211</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44196</v>
+        <v>44209</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -6290,10 +6290,10 @@
         <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44169</v>
+        <v>44209</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44169</v>
+        <v>44517</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6447,13 +6447,13 @@
         <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44560</v>
+        <v>44169</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6847,17 +6847,17 @@
         <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O81" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="P81" t="n">
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>525</v>
+        <v>1650</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44560</v>
+        <v>44169</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6927,17 +6927,17 @@
         <v>50</v>
       </c>
       <c r="N82" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P82" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>6227</v>
+        <v>10500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>623</v>
+        <v>1050</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44552</v>
+        <v>44208</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7080,33 +7080,33 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O84" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7167,13 +7167,13 @@
         <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O85" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P85" t="n">
-        <v>4750</v>
+        <v>5250</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N86" t="n">
         <v>4500</v>
       </c>
       <c r="O86" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P86" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44194</v>
+        <v>44552</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N87" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O87" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="P87" t="n">
-        <v>8250</v>
+        <v>6227</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>825</v>
+        <v>623</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44194</v>
+        <v>44552</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N88" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O88" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="P88" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>750</v>
+        <v>630</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7487,26 +7487,26 @@
         <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P89" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,38 +7555,38 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>4750</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7647,13 +7647,13 @@
         <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="P91" t="n">
-        <v>15500</v>
+        <v>8250</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1550</v>
+        <v>825</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7727,13 +7727,13 @@
         <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O92" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P92" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7807,29 +7807,29 @@
         <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="T93" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44532</v>
+        <v>44194</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7887,29 +7887,29 @@
         <v>50</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S94" t="n">
         <v>800</v>
       </c>
       <c r="T94" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P95" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44525</v>
+        <v>44532</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8124,32 +8124,32 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O97" t="n">
         <v>15000</v>
       </c>
-      <c r="O97" t="n">
-        <v>16000</v>
-      </c>
       <c r="P97" t="n">
-        <v>15571</v>
+        <v>14500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1557</v>
+        <v>967</v>
       </c>
       <c r="T97" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -8167,68 +8167,388 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>50</v>
+      </c>
+      <c r="N98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
+        <v>800</v>
+      </c>
+      <c r="T98" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>100</v>
+      </c>
+      <c r="N99" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O99" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P99" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S99" t="n">
+        <v>1350</v>
+      </c>
+      <c r="T99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>50</v>
+      </c>
+      <c r="N100" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O100" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P100" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S100" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E98" t="n">
-        <v>8</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
+      <c r="E101" t="n">
+        <v>8</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>70</v>
+      </c>
+      <c r="N101" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O101" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P101" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S101" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="M102" t="n">
         <v>80</v>
       </c>
-      <c r="N98" t="n">
+      <c r="N102" t="n">
         <v>15000</v>
       </c>
-      <c r="O98" t="n">
+      <c r="O102" t="n">
         <v>16000</v>
       </c>
-      <c r="P98" t="n">
+      <c r="P102" t="n">
         <v>15375</v>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="R102" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S98" t="n">
+      <c r="S102" t="n">
         <v>1538</v>
       </c>
-      <c r="T98" t="n">
+      <c r="T102" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44530</v>
+        <v>44579</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>9235</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2400</v>
+        <v>616</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,38 +3475,38 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P39" t="n">
-        <v>9500</v>
+        <v>4278</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>950</v>
+        <v>428</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3555,38 +3555,38 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
         <v>9000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
         <v>8000</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O43" t="n">
         <v>10000</v>
       </c>
-      <c r="O43" t="n">
-        <v>11000</v>
-      </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
         <v>8000</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>8727</v>
+        <v>10500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>873</v>
+        <v>1050</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,38 +4035,38 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
         <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>8625</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>862</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44567</v>
+        <v>44540</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="O47" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P47" t="n">
-        <v>5222</v>
+        <v>8727</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>522</v>
+        <v>873</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>12467</v>
+        <v>8625</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1781</v>
+        <v>862</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44524</v>
+        <v>44567</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="N49" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P49" t="n">
-        <v>17588</v>
+        <v>5222</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1759</v>
+        <v>522</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44215</v>
+        <v>44524</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P50" t="n">
-        <v>10500</v>
+        <v>12467</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1050</v>
+        <v>1781</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44215</v>
+        <v>44524</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,38 +4435,38 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O51" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>9000</v>
+        <v>17588</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>900</v>
+        <v>1759</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44523</v>
+        <v>44215</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,29 +4524,29 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P52" t="n">
-        <v>20571</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2057</v>
+        <v>1050</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44573</v>
+        <v>44215</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,38 +4595,38 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P53" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>625</v>
+        <v>900</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44573</v>
+        <v>44523</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N54" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="O54" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="P54" t="n">
-        <v>5500</v>
+        <v>20571</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>550</v>
+        <v>2057</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44204</v>
+        <v>44573</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,26 +4767,26 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P55" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>950</v>
+        <v>625</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44204</v>
+        <v>44573</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4847,26 +4847,26 @@
         <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P56" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O57" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
         <v>6000</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
         <v>5000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P61" t="n">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1550</v>
+        <v>600</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5727,13 +5727,13 @@
         <v>50</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N68" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44526</v>
+        <v>44160</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
         <v>15000</v>
@@ -6053,11 +6053,11 @@
         <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>15545</v>
+        <v>15500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>3109</v>
+        <v>1550</v>
       </c>
       <c r="T71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N76" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44196</v>
+        <v>44517</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P82" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P84" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O85" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P85" t="n">
-        <v>5250</v>
+        <v>9000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O86" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P86" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N87" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O87" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="P87" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N88" t="n">
         <v>6000</v>
@@ -7413,7 +7413,7 @@
         <v>6500</v>
       </c>
       <c r="P88" t="n">
-        <v>6300</v>
+        <v>6227</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N89" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O89" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P89" t="n">
-        <v>4750</v>
+        <v>6300</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
         <v>4500</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7647,26 +7647,26 @@
         <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O91" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P91" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O92" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P92" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P93" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N95" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P96" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44532</v>
+        <v>44162</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8120,36 +8120,36 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O97" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P97" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>967</v>
+        <v>1300</v>
       </c>
       <c r="T97" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -8275,41 +8275,41 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="T99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O100" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P100" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T100" t="n">
         <v>10</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -8435,29 +8435,29 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N101" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O101" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P101" t="n">
-        <v>15571</v>
+        <v>11000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1557</v>
+        <v>1100</v>
       </c>
       <c r="T101" t="n">
         <v>10</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N102" t="n">
         <v>15000</v>
@@ -8533,22 +8533,102 @@
         <v>16000</v>
       </c>
       <c r="P102" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S102" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>80</v>
+      </c>
+      <c r="N103" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O103" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P103" t="n">
         <v>15375</v>
       </c>
-      <c r="Q102" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S102" t="n">
+      <c r="S103" t="n">
         <v>1538</v>
       </c>
-      <c r="T102" t="n">
+      <c r="T103" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44530</v>
+        <v>44580</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>4773</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2400</v>
+        <v>477</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44579</v>
+        <v>44530</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>9235</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>616</v>
+        <v>2400</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3475,29 +3475,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N39" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="P39" t="n">
-        <v>4278</v>
+        <v>9235</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>428</v>
+        <v>616</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O40" t="n">
         <v>4500</v>
       </c>
-      <c r="O40" t="n">
-        <v>5000</v>
-      </c>
       <c r="P40" t="n">
-        <v>4700</v>
+        <v>4278</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P41" t="n">
-        <v>9500</v>
+        <v>4700</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>950</v>
+        <v>470</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>8727</v>
+        <v>8000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O48" t="n">
         <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>8625</v>
+        <v>8727</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44567</v>
+        <v>44540</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="N49" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O49" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>5222</v>
+        <v>8625</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>522</v>
+        <v>862</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44524</v>
+        <v>44567</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O50" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="P50" t="n">
-        <v>12467</v>
+        <v>5222</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1781</v>
+        <v>522</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N51" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P51" t="n">
-        <v>17588</v>
+        <v>12467</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1759</v>
+        <v>1781</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44215</v>
+        <v>44524</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,29 +4524,29 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O52" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>17588</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1050</v>
+        <v>1759</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44523</v>
+        <v>44215</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4675,38 +4675,38 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P54" t="n">
-        <v>20571</v>
+        <v>9000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2057</v>
+        <v>900</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44573</v>
+        <v>44523</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N55" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O55" t="n">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="P55" t="n">
-        <v>6250</v>
+        <v>20571</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>625</v>
+        <v>2057</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O56" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="P56" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44204</v>
+        <v>44573</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,38 +4915,38 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P57" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O59" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P60" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O62" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P62" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>650</v>
+        <v>1550</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O67" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>50</v>
       </c>
       <c r="N68" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O68" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P68" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>50</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1550</v>
+        <v>650</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N77" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44196</v>
+        <v>44517</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P78" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P81" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O83" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P83" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P84" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P85" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7240,33 +7240,33 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N86" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O86" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P86" t="n">
-        <v>5250</v>
+        <v>9000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O87" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P87" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O88" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="P88" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N89" t="n">
         <v>6000</v>
@@ -7493,7 +7493,7 @@
         <v>6500</v>
       </c>
       <c r="P89" t="n">
-        <v>6300</v>
+        <v>6227</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N90" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O90" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P90" t="n">
-        <v>4750</v>
+        <v>6300</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
         <v>4500</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7727,26 +7727,26 @@
         <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O92" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P92" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P93" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P94" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N96" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O97" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P97" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44532</v>
+        <v>44162</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -8200,36 +8200,36 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>967</v>
+        <v>1300</v>
       </c>
       <c r="T98" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -8355,41 +8355,41 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N100" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="T100" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T101" t="n">
         <v>10</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -8515,29 +8515,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O102" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P102" t="n">
-        <v>15571</v>
+        <v>11000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1557</v>
+        <v>1100</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N103" t="n">
         <v>15000</v>
@@ -8613,22 +8613,102 @@
         <v>16000</v>
       </c>
       <c r="P103" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S103" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>80</v>
+      </c>
+      <c r="N104" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O104" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P104" t="n">
         <v>15375</v>
       </c>
-      <c r="Q103" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S103" t="n">
+      <c r="S104" t="n">
         <v>1538</v>
       </c>
-      <c r="T103" t="n">
+      <c r="T104" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44188</v>
+        <v>44581</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2444,29 +2444,29 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P26" t="n">
-        <v>10500</v>
+        <v>5260</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>526</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
         <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1450</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44580</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,29 +3324,29 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>4773</v>
+        <v>15500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>477</v>
+        <v>1550</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44530</v>
+        <v>44580</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>4773</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2400</v>
+        <v>477</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44579</v>
+        <v>44530</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>9235</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>616</v>
+        <v>2400</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N40" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="P40" t="n">
-        <v>4278</v>
+        <v>9235</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>428</v>
+        <v>616</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N41" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O41" t="n">
         <v>4500</v>
       </c>
-      <c r="O41" t="n">
-        <v>5000</v>
-      </c>
       <c r="P41" t="n">
-        <v>4700</v>
+        <v>4278</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,29 +3724,29 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P42" t="n">
-        <v>9500</v>
+        <v>4700</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>950</v>
+        <v>470</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44187</v>
+        <v>44202</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P47" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>8727</v>
+        <v>8000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N49" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O49" t="n">
         <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>8625</v>
+        <v>8727</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44567</v>
+        <v>44540</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>5222</v>
+        <v>8625</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>522</v>
+        <v>862</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44524</v>
+        <v>44567</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="P51" t="n">
-        <v>12467</v>
+        <v>5222</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1781</v>
+        <v>522</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>17588</v>
+        <v>12467</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1759</v>
+        <v>1781</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44215</v>
+        <v>44524</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>10500</v>
+        <v>17588</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1050</v>
+        <v>1759</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44523</v>
+        <v>44215</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,38 +4755,38 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O55" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>20571</v>
+        <v>9000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2057</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44573</v>
+        <v>44523</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N56" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O56" t="n">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="P56" t="n">
-        <v>6250</v>
+        <v>20571</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>625</v>
+        <v>2057</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O57" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="P57" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44204</v>
+        <v>44573</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,38 +4995,38 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P58" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44574</v>
+        <v>44204</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O61" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P61" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O62" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P62" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P63" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P64" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>650</v>
+        <v>1550</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O68" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>50</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N71" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P72" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1550</v>
+        <v>650</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44196</v>
+        <v>44517</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P79" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P84" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P86" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7320,33 +7320,33 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N87" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P87" t="n">
-        <v>5250</v>
+        <v>9000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O88" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P88" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N89" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O89" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="P89" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N90" t="n">
         <v>6000</v>
@@ -7573,7 +7573,7 @@
         <v>6500</v>
       </c>
       <c r="P90" t="n">
-        <v>6300</v>
+        <v>6227</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N91" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O91" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P91" t="n">
-        <v>4750</v>
+        <v>6300</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
         <v>4500</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7807,26 +7807,26 @@
         <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O93" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P93" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P94" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P95" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N97" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O97" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T98" t="n">
         <v>10</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44532</v>
+        <v>44162</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -8280,36 +8280,36 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>100</v>
       </c>
       <c r="N99" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>967</v>
+        <v>1300</v>
       </c>
       <c r="T99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -8435,41 +8435,41 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O101" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P101" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="T101" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O102" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -8595,29 +8595,29 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N103" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>15571</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1557</v>
+        <v>1100</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N104" t="n">
         <v>15000</v>
@@ -8693,22 +8693,102 @@
         <v>16000</v>
       </c>
       <c r="P104" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S104" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>80</v>
+      </c>
+      <c r="N105" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O105" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P105" t="n">
         <v>15375</v>
       </c>
-      <c r="Q104" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S104" t="n">
+      <c r="S105" t="n">
         <v>1538</v>
       </c>
-      <c r="T104" t="n">
+      <c r="T105" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5804,29 +5804,29 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N68" t="n">
         <v>6000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="P68" t="n">
-        <v>6500</v>
+        <v>6233</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O69" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>50</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N72" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>15500</v>
+        <v>6500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1550</v>
+        <v>650</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44517</v>
+        <v>44209</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44196</v>
+        <v>44517</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P80" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44169</v>
+        <v>44196</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P84" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P85" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1400</v>
+        <v>1650</v>
       </c>
       <c r="T85" t="n">
         <v>10</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P86" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P87" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44560</v>
+        <v>44208</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O88" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P88" t="n">
-        <v>5250</v>
+        <v>9000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O89" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P89" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N90" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O90" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="P90" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N91" t="n">
         <v>6000</v>
@@ -7653,7 +7653,7 @@
         <v>6500</v>
       </c>
       <c r="P91" t="n">
-        <v>6300</v>
+        <v>6227</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O92" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P92" t="n">
-        <v>4750</v>
+        <v>6300</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
         <v>4500</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44194</v>
+        <v>44558</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7887,26 +7887,26 @@
         <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O94" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="P94" t="n">
-        <v>8250</v>
+        <v>4750</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>825</v>
+        <v>475</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P95" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P96" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N98" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T98" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T99" t="n">
         <v>10</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44532</v>
+        <v>44162</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -8360,36 +8360,36 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P100" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>967</v>
+        <v>1300</v>
       </c>
       <c r="T100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P101" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -8515,41 +8515,41 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N102" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="T102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -8675,29 +8675,29 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N104" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O104" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P104" t="n">
-        <v>15571</v>
+        <v>11000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1557</v>
+        <v>1100</v>
       </c>
       <c r="T104" t="n">
         <v>10</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N105" t="n">
         <v>15000</v>
@@ -8773,22 +8773,102 @@
         <v>16000</v>
       </c>
       <c r="P105" t="n">
+        <v>15571</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S105" t="n">
+        <v>1557</v>
+      </c>
+      <c r="T105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>11</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>80</v>
+      </c>
+      <c r="N106" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O106" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P106" t="n">
         <v>15375</v>
       </c>
-      <c r="Q105" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S105" t="n">
+      <c r="S106" t="n">
         <v>1538</v>
       </c>
-      <c r="T105" t="n">
+      <c r="T106" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44565</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>4400</v>
+        <v>10500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>440</v>
+        <v>1050</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44565</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>5227</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>523</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44568</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>6737</v>
+        <v>9500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44544</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O8" t="n">
         <v>7000</v>
       </c>
-      <c r="O8" t="n">
-        <v>7500</v>
-      </c>
       <c r="P8" t="n">
-        <v>7227</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44566</v>
+        <v>44544</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44547</v>
+        <v>44568</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
         <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>7000</v>
+        <v>6737</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44517</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>4750</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>475</v>
+        <v>2100</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44518</v>
+        <v>44196</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>1050</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44525</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,38 +1795,38 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>9000</v>
+        <v>15571</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>1557</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44561</v>
+        <v>44525</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,29 +1884,29 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>5500</v>
+        <v>15375</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>550</v>
+        <v>1538</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44561</v>
+        <v>44208</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,33 +1960,33 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44537</v>
+        <v>44208</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44537</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P22" t="n">
-        <v>14545</v>
+        <v>8250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1454</v>
+        <v>825</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44572</v>
+        <v>44194</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,29 +2284,29 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44572</v>
+        <v>44194</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,29 +2364,29 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44581</v>
+        <v>44537</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>5260</v>
+        <v>10500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>526</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44188</v>
+        <v>44537</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>14545</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>1454</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44188</v>
+        <v>44518</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2607,13 +2607,13 @@
         <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44188</v>
+        <v>44565</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>4400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>440</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44188</v>
+        <v>44565</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>5227</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>523</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44189</v>
+        <v>44559</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3007,13 +3007,13 @@
         <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>475</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44189</v>
+        <v>44559</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3087,13 +3087,13 @@
         <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3167,13 +3167,13 @@
         <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P37" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44580</v>
+        <v>44169</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,38 +3395,38 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>4773</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>477</v>
+        <v>1400</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44530</v>
+        <v>44215</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2400</v>
+        <v>1050</v>
       </c>
       <c r="T39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44579</v>
+        <v>44215</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3560,36 +3560,36 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
         <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>9235</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>616</v>
+        <v>900</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44579</v>
+        <v>44168</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,38 +3635,38 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>4278</v>
+        <v>15500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>428</v>
+        <v>1550</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44579</v>
+        <v>44168</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,38 +3715,38 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>4700</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>470</v>
+        <v>1300</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44202</v>
+        <v>44168</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44202</v>
+        <v>44579</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P44" t="n">
-        <v>8000</v>
+        <v>9235</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>616</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44187</v>
+        <v>44579</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,38 +3955,38 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N45" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P45" t="n">
-        <v>9500</v>
+        <v>4278</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>950</v>
+        <v>428</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44187</v>
+        <v>44579</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,38 +4035,38 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44187</v>
+        <v>44574</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O47" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44187</v>
+        <v>44574</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44540</v>
+        <v>44574</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P49" t="n">
-        <v>8727</v>
+        <v>6000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>873</v>
+        <v>600</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44540</v>
+        <v>44574</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,38 +4355,38 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O50" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P50" t="n">
-        <v>8625</v>
+        <v>5000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>862</v>
+        <v>500</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44567</v>
+        <v>44553</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N51" t="n">
         <v>5000</v>
@@ -4453,7 +4453,7 @@
         <v>5500</v>
       </c>
       <c r="P51" t="n">
-        <v>5222</v>
+        <v>5200</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44524</v>
+        <v>44553</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P52" t="n">
-        <v>12467</v>
+        <v>7227</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1781</v>
+        <v>723</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44524</v>
+        <v>44547</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P53" t="n">
-        <v>17588</v>
+        <v>6500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1759</v>
+        <v>650</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44215</v>
+        <v>44547</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P54" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44215</v>
+        <v>44547</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O55" t="n">
         <v>9000</v>
       </c>
       <c r="P55" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44523</v>
+        <v>44547</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,38 +4835,38 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P56" t="n">
-        <v>20571</v>
+        <v>7000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>2057</v>
+        <v>700</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44573</v>
+        <v>44558</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O57" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P57" t="n">
-        <v>6250</v>
+        <v>4750</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44573</v>
+        <v>44558</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O58" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P58" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44204</v>
+        <v>44524</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,32 +5084,32 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N59" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>9500</v>
+        <v>12467</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>950</v>
+        <v>1781</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44204</v>
+        <v>44524</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,38 +5155,38 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>17588</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>1759</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44574</v>
+        <v>44530</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,41 +5235,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44574</v>
+        <v>44582</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,38 +5315,38 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O62" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P62" t="n">
-        <v>5000</v>
+        <v>6233</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44574</v>
+        <v>44159</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44574</v>
+        <v>44580</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,38 +5475,38 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O64" t="n">
         <v>5000</v>
       </c>
       <c r="P64" t="n">
-        <v>5000</v>
+        <v>4773</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44572</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5567,26 +5567,26 @@
         <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>5750</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1550</v>
+        <v>575</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44168</v>
+        <v>44572</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5647,26 +5647,26 @@
         <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44168</v>
+        <v>44552</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,29 +5724,29 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="P67" t="n">
-        <v>15500</v>
+        <v>6227</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1550</v>
+        <v>623</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44582</v>
+        <v>44552</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N68" t="n">
         <v>6000</v>
@@ -5813,7 +5813,7 @@
         <v>6500</v>
       </c>
       <c r="P68" t="n">
-        <v>6233</v>
+        <v>6300</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44544</v>
+        <v>44211</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5887,13 +5887,13 @@
         <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44544</v>
+        <v>44211</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5967,13 +5967,13 @@
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44544</v>
+        <v>44540</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>8727</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1200</v>
+        <v>873</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44544</v>
+        <v>44540</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,38 +6115,38 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>8625</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>862</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44544</v>
+        <v>44166</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>650</v>
+        <v>1450</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O74" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P74" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P76" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N79" t="n">
         <v>8000</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44517</v>
+        <v>44581</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N80" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O80" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="P80" t="n">
-        <v>21000</v>
+        <v>5260</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>2100</v>
+        <v>526</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44196</v>
+        <v>44567</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,29 +6844,29 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P81" t="n">
-        <v>10500</v>
+        <v>5222</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1050</v>
+        <v>522</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44196</v>
+        <v>44573</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P82" t="n">
-        <v>9000</v>
+        <v>6250</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44169</v>
+        <v>44573</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6995,29 +6995,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O83" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P83" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44169</v>
+        <v>44532</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1300</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44169</v>
+        <v>44532</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1650</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44169</v>
+        <v>44187</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O86" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1400</v>
+        <v>950</v>
       </c>
       <c r="T86" t="n">
         <v>10</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44208</v>
+        <v>44187</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44208</v>
+        <v>44187</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P88" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44560</v>
+        <v>44187</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N89" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O89" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>5250</v>
+        <v>8000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>525</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44560</v>
+        <v>44202</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,29 +7555,29 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O90" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44552</v>
+        <v>44202</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>6227</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>623</v>
+        <v>800</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44552</v>
+        <v>44561</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O92" t="n">
         <v>6000</v>
       </c>
-      <c r="O92" t="n">
-        <v>6500</v>
-      </c>
       <c r="P92" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O93" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P93" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44558</v>
+        <v>44533</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,29 +7884,29 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O94" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P94" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>475</v>
+        <v>1350</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44194</v>
+        <v>44533</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>825</v>
+        <v>1100</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44194</v>
+        <v>44523</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N96" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O96" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P96" t="n">
-        <v>7500</v>
+        <v>20571</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>750</v>
+        <v>2057</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44194</v>
+        <v>44560</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8127,26 +8127,26 @@
         <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P97" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>950</v>
+        <v>525</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44194</v>
+        <v>44560</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8207,26 +8207,26 @@
         <v>50</v>
       </c>
       <c r="N98" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O98" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P98" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T98" t="n">
         <v>10</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44532</v>
+        <v>44189</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8444,20 +8444,20 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O101" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="T101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44532</v>
+        <v>44189</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8524,20 +8524,20 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8549,7 +8549,7 @@
         <v>800</v>
       </c>
       <c r="T102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44533</v>
+        <v>44189</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8607,13 +8607,13 @@
         <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1350</v>
+        <v>1050</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44533</v>
+        <v>44189</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8687,13 +8687,13 @@
         <v>50</v>
       </c>
       <c r="N104" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O104" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="T104" t="n">
         <v>10</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,29 +8764,29 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>15571</v>
+        <v>9500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1557</v>
+        <v>950</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44525</v>
+        <v>44209</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>80</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>15375</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1538</v>
+        <v>800</v>
       </c>
       <c r="T106" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44524</v>
+        <v>44589</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N59" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>12467</v>
+        <v>7750</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1781</v>
+        <v>775</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N60" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O60" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>17588</v>
+        <v>12467</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1759</v>
+        <v>1781</v>
       </c>
       <c r="T60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44530</v>
+        <v>44524</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>17588</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>2400</v>
+        <v>1759</v>
       </c>
       <c r="T61" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44582</v>
+        <v>44530</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N62" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>6233</v>
+        <v>12000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>623</v>
+        <v>2400</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44159</v>
+        <v>44582</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>6233</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1450</v>
+        <v>623</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>4773</v>
+        <v>14500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>477</v>
+        <v>1450</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44572</v>
+        <v>44580</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N65" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O65" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>5750</v>
+        <v>4773</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>575</v>
+        <v>477</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O66" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P66" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44552</v>
+        <v>44572</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O67" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P67" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N68" t="n">
         <v>6000</v>
@@ -5813,7 +5813,7 @@
         <v>6500</v>
       </c>
       <c r="P68" t="n">
-        <v>6300</v>
+        <v>6227</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44211</v>
+        <v>44552</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5884,29 +5884,29 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P69" t="n">
-        <v>9500</v>
+        <v>6300</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>950</v>
+        <v>630</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44540</v>
+        <v>44211</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6040,33 +6040,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N71" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O71" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>8727</v>
+        <v>8000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O72" t="n">
         <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>8625</v>
+        <v>8727</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44166</v>
+        <v>44540</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P73" t="n">
-        <v>14500</v>
+        <v>8625</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1450</v>
+        <v>862</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P78" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44581</v>
+        <v>44203</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N80" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>5260</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>526</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44567</v>
+        <v>44581</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N81" t="n">
         <v>5000</v>
@@ -6853,7 +6853,7 @@
         <v>5500</v>
       </c>
       <c r="P81" t="n">
-        <v>5222</v>
+        <v>5260</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N82" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O82" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="P82" t="n">
-        <v>6250</v>
+        <v>5222</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O83" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="P83" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44532</v>
+        <v>44573</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P84" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>550</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44187</v>
+        <v>44532</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N86" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N90" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44561</v>
+        <v>44202</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,29 +7715,29 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N92" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O92" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O93" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P93" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44533</v>
+        <v>44561</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,38 +7875,38 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N94" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O94" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P94" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P95" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N96" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>20571</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>2057</v>
+        <v>1100</v>
       </c>
       <c r="T96" t="n">
         <v>10</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44560</v>
+        <v>44523</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N97" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O97" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="P97" t="n">
-        <v>5250</v>
+        <v>20571</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>525</v>
+        <v>2057</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O98" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P98" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="T98" t="n">
         <v>10</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -8275,38 +8275,38 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N99" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O99" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="P99" t="n">
-        <v>15500</v>
+        <v>4500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1550</v>
+        <v>450</v>
       </c>
       <c r="T99" t="n">
         <v>10</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O100" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P100" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="T100" t="n">
         <v>10</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T101" t="n">
         <v>10</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N104" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P104" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="T104" t="n">
         <v>10</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N105" t="n">
         <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8840,35 +8840,115 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>100</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O106" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P106" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="S106" t="n">
+        <v>950</v>
+      </c>
+      <c r="T106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>11</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="M107" t="n">
         <v>80</v>
       </c>
-      <c r="N106" t="n">
+      <c r="N107" t="n">
         <v>8000</v>
       </c>
-      <c r="O106" t="n">
+      <c r="O107" t="n">
         <v>8000</v>
       </c>
-      <c r="P106" t="n">
+      <c r="P107" t="n">
         <v>8000</v>
       </c>
-      <c r="Q106" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>Región de Ñuble</t>
         </is>
       </c>
-      <c r="S106" t="n">
+      <c r="S107" t="n">
         <v>800</v>
       </c>
-      <c r="T106" t="n">
+      <c r="T107" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>9000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1050</v>
+        <v>1550</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44168</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44525</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,38 +915,38 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>15571</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1557</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44544</v>
+        <v>44525</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>15375</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>650</v>
+        <v>1538</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44544</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O9" t="n">
         <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44544</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>4750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>475</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44544</v>
+        <v>44561</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44561</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1315,29 +1315,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44568</v>
+        <v>44169</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>6737</v>
+        <v>15500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>674</v>
+        <v>1550</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44517</v>
+        <v>44169</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44566</v>
+        <v>44169</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>5700</v>
+        <v>16500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>570</v>
+        <v>1650</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44196</v>
+        <v>44169</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44196</v>
+        <v>44517</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44525</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1807,13 +1807,13 @@
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>15571</v>
+        <v>20571</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1557</v>
+        <v>2057</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44525</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P19" t="n">
-        <v>15375</v>
+        <v>4750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1538</v>
+        <v>475</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44208</v>
+        <v>44580</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2040,33 +2040,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>4773</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>477</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -2127,13 +2127,13 @@
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2287,13 +2287,13 @@
         <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2367,13 +2367,13 @@
         <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44537</v>
+        <v>44187</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O26" t="n">
         <v>10000</v>
       </c>
-      <c r="O26" t="n">
-        <v>11000</v>
-      </c>
       <c r="P26" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44537</v>
+        <v>44187</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>14545</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1454</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44518</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2800</v>
+        <v>1050</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44565</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44565</v>
+        <v>44209</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,29 +2764,29 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>5227</v>
+        <v>9500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>523</v>
+        <v>950</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44195</v>
+        <v>44209</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44195</v>
+        <v>44211</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44559</v>
+        <v>44211</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>4750</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44559</v>
+        <v>44533</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>400</v>
+        <v>1350</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44169</v>
+        <v>44533</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44169</v>
+        <v>44203</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44169</v>
+        <v>44203</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1650</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44169</v>
+        <v>44532</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
         <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1400</v>
+        <v>967</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44215</v>
+        <v>44532</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3475,41 +3475,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44215</v>
+        <v>44540</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3560,33 +3560,33 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O40" t="n">
         <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>8727</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>900</v>
+        <v>873</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44168</v>
+        <v>44540</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P41" t="n">
-        <v>15500</v>
+        <v>8625</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1550</v>
+        <v>862</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P43" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O44" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P44" t="n">
-        <v>9235</v>
+        <v>6000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,29 +3964,29 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O45" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P45" t="n">
-        <v>4278</v>
+        <v>5000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="T45" t="n">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44579</v>
+        <v>44589</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N46" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O46" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>4700</v>
+        <v>7750</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>470</v>
+        <v>775</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44574</v>
+        <v>44518</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44574</v>
+        <v>44582</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -4195,38 +4195,38 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O48" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P48" t="n">
-        <v>5000</v>
+        <v>6233</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44574</v>
+        <v>44159</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="T49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44574</v>
+        <v>44202</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44553</v>
+        <v>44202</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4435,38 +4435,38 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O51" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44553</v>
+        <v>44560</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O52" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P52" t="n">
-        <v>7227</v>
+        <v>5250</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>723</v>
+        <v>525</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N53" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O53" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P53" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="T53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44547</v>
+        <v>44204</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44547</v>
+        <v>44204</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
         <v>8000</v>
       </c>
       <c r="O55" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44547</v>
+        <v>44194</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P56" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>700</v>
+        <v>825</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44558</v>
+        <v>44194</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4920,33 +4920,33 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O57" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P57" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="T57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44558</v>
+        <v>44194</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,29 +5004,29 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>475</v>
+        <v>950</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44589</v>
+        <v>44194</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O59" t="n">
         <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44524</v>
+        <v>44547</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,32 +5164,32 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P60" t="n">
-        <v>12467</v>
+        <v>6500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1781</v>
+        <v>650</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44524</v>
+        <v>44547</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -5235,38 +5235,38 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>17588</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1759</v>
+        <v>500</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44530</v>
+        <v>44547</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -5315,41 +5315,41 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P62" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>2400</v>
+        <v>850</v>
       </c>
       <c r="T62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44582</v>
+        <v>44547</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -5395,38 +5395,38 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>6233</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44159</v>
+        <v>44188</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1450</v>
+        <v>1050</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44580</v>
+        <v>44188</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5560,33 +5560,33 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N65" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P65" t="n">
-        <v>4773</v>
+        <v>9000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>477</v>
+        <v>900</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44572</v>
+        <v>44188</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5647,26 +5647,26 @@
         <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P66" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>575</v>
+        <v>1050</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44572</v>
+        <v>44188</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5727,26 +5727,26 @@
         <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O67" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P67" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44552</v>
+        <v>44166</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,29 +5804,29 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>6227</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>623</v>
+        <v>1450</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44552</v>
+        <v>44166</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5875,38 +5875,38 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>6300</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>630</v>
+        <v>1200</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P70" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44211</v>
+        <v>44579</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -6040,36 +6040,36 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N71" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P71" t="n">
-        <v>8000</v>
+        <v>9235</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>800</v>
+        <v>616</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44540</v>
+        <v>44579</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N72" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P72" t="n">
-        <v>8727</v>
+        <v>4278</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>873</v>
+        <v>428</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44540</v>
+        <v>44579</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O73" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P73" t="n">
-        <v>8625</v>
+        <v>4700</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>862</v>
+        <v>470</v>
       </c>
       <c r="T73" t="n">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44166</v>
+        <v>44566</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>5700</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1450</v>
+        <v>570</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1550</v>
+        <v>900</v>
       </c>
       <c r="T76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="T77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N78" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44203</v>
+        <v>44162</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T79" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44203</v>
+        <v>44162</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6844,29 +6844,29 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N81" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O81" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>5260</v>
+        <v>6737</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>526</v>
+        <v>674</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N82" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O82" t="n">
         <v>5000</v>
       </c>
-      <c r="O82" t="n">
-        <v>5500</v>
-      </c>
       <c r="P82" t="n">
-        <v>5222</v>
+        <v>4400</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N83" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O83" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="P83" t="n">
-        <v>6250</v>
+        <v>5227</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>625</v>
+        <v>523</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="P84" t="n">
-        <v>5500</v>
+        <v>6250</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="T84" t="n">
         <v>10</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44532</v>
+        <v>44573</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P85" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>967</v>
+        <v>550</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44532</v>
+        <v>44567</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7235,41 +7235,41 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P86" t="n">
-        <v>12000</v>
+        <v>5222</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>522</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44187</v>
+        <v>44581</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -7324,29 +7324,29 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P87" t="n">
-        <v>9500</v>
+        <v>5260</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>950</v>
+        <v>526</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T88" t="n">
         <v>10</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>10500</v>
+        <v>14545</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1050</v>
+        <v>1454</v>
       </c>
       <c r="T89" t="n">
         <v>10</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -7555,38 +7555,38 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44202</v>
+        <v>44553</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,29 +7644,29 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N91" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P91" t="n">
-        <v>9500</v>
+        <v>7227</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>950</v>
+        <v>723</v>
       </c>
       <c r="T91" t="n">
         <v>10</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44202</v>
+        <v>44208</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P92" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="T92" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44561</v>
+        <v>44208</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7800,33 +7800,33 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P93" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="T93" t="n">
         <v>10</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44561</v>
+        <v>44524</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7875,41 +7875,41 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N94" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P94" t="n">
-        <v>4000</v>
+        <v>12467</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>400</v>
+        <v>1781</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44533</v>
+        <v>44524</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O95" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P95" t="n">
-        <v>13500</v>
+        <v>17588</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1350</v>
+        <v>1759</v>
       </c>
       <c r="T95" t="n">
         <v>10</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8047,17 +8047,17 @@
         <v>50</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="T96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44523</v>
+        <v>44572</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="O97" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P97" t="n">
-        <v>20571</v>
+        <v>5750</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>2057</v>
+        <v>575</v>
       </c>
       <c r="T97" t="n">
         <v>10</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44560</v>
+        <v>44572</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -8210,10 +8210,10 @@
         <v>5000</v>
       </c>
       <c r="O98" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P98" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="T98" t="n">
         <v>10</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N99" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O99" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P99" t="n">
-        <v>4500</v>
+        <v>6227</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>450</v>
+        <v>623</v>
       </c>
       <c r="T99" t="n">
         <v>10</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44162</v>
+        <v>44552</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8364,20 +8364,20 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N100" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O100" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="P100" t="n">
-        <v>15500</v>
+        <v>6300</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1550</v>
+        <v>630</v>
       </c>
       <c r="T100" t="n">
         <v>10</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="T101" t="n">
         <v>10</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44189</v>
+        <v>44544</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P102" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="T102" t="n">
         <v>10</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44189</v>
+        <v>44544</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T103" t="n">
         <v>10</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44189</v>
+        <v>44544</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N104" t="n">
         <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T104" t="n">
         <v>10</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44189</v>
+        <v>44544</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T105" t="n">
         <v>10</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44209</v>
+        <v>44160</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P106" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="T106" t="n">
         <v>10</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44209</v>
+        <v>44160</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T107" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Cereza.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44215</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>10000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44215</v>
+        <v>44195</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>9000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44573</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="P4" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1550</v>
+        <v>625</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44573</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44168</v>
+        <v>44566</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>15500</v>
+        <v>5700</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1550</v>
+        <v>570</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44525</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>15571</v>
+        <v>10500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1557</v>
+        <v>1050</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44525</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>15375</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1538</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>475</v>
+        <v>1050</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44188</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P10" t="n">
-        <v>4750</v>
+        <v>9000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>5500</v>
+        <v>6737</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>550</v>
+        <v>674</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44561</v>
+        <v>44211</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1320,33 +1320,33 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44169</v>
+        <v>44211</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44169</v>
+        <v>44579</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>9235</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1300</v>
+        <v>616</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44169</v>
+        <v>44579</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="P15" t="n">
-        <v>16500</v>
+        <v>4278</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1650</v>
+        <v>428</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44169</v>
+        <v>44579</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1635,38 +1635,38 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>4700</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1400</v>
+        <v>470</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44517</v>
+        <v>44580</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>4773</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2100</v>
+        <v>477</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,29 +1804,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>20571</v>
+        <v>9500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2057</v>
+        <v>950</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44559</v>
+        <v>44187</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>4750</v>
+        <v>8000</v>
      